--- a/src/output/results1.xlsx
+++ b/src/output/results1.xlsx
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,10 +414,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -437,7 +437,7 @@
         <v>3.0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -482,13 +482,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B9" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C9" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="B10" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="C10" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -516,13 +516,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="B11" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="C11" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -533,30 +533,30 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>57.0</v>
+        <v>70.0</v>
       </c>
       <c r="B12" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="C12" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>79.0</v>
+        <v>84.0</v>
       </c>
       <c r="B13" t="n">
-        <v>78.0</v>
+        <v>83.0</v>
       </c>
       <c r="C13" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100.0</v>
+        <v>109.0</v>
       </c>
       <c r="B14" t="n">
-        <v>97.0</v>
+        <v>106.0</v>
       </c>
       <c r="C14" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
@@ -584,1617 +584,1617 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>125.0</v>
+        <v>143.0</v>
       </c>
       <c r="B15" t="n">
-        <v>117.0</v>
+        <v>139.0</v>
       </c>
       <c r="C15" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>147.0</v>
+        <v>177.0</v>
       </c>
       <c r="B16" t="n">
-        <v>138.0</v>
+        <v>169.0</v>
       </c>
       <c r="C16" t="n">
-        <v>22.0</v>
+        <v>34.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="B17" t="n">
-        <v>170.0</v>
+        <v>204.0</v>
       </c>
       <c r="C17" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>219.0</v>
+        <v>273.0</v>
       </c>
       <c r="B18" t="n">
-        <v>201.0</v>
+        <v>247.0</v>
       </c>
       <c r="C18" t="n">
-        <v>39.0</v>
+        <v>55.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>260.0</v>
+        <v>342.0</v>
       </c>
       <c r="B19" t="n">
-        <v>236.0</v>
+        <v>309.0</v>
       </c>
       <c r="C19" t="n">
-        <v>41.0</v>
+        <v>69.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>336.0</v>
+        <v>429.0</v>
       </c>
       <c r="B20" t="n">
-        <v>299.0</v>
+        <v>385.0</v>
       </c>
       <c r="C20" t="n">
-        <v>76.0</v>
+        <v>87.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>436.0</v>
+        <v>516.0</v>
       </c>
       <c r="B21" t="n">
-        <v>385.0</v>
+        <v>460.0</v>
       </c>
       <c r="C21" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>542.0</v>
+        <v>615.0</v>
       </c>
       <c r="B22" t="n">
-        <v>479.0</v>
+        <v>541.0</v>
       </c>
       <c r="C22" t="n">
-        <v>106.0</v>
+        <v>99.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>668.0</v>
+        <v>751.0</v>
       </c>
       <c r="B23" t="n">
-        <v>589.0</v>
+        <v>661.0</v>
       </c>
       <c r="C23" t="n">
-        <v>126.0</v>
+        <v>136.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E23" t="n">
-        <v>79.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>795.0</v>
+        <v>878.0</v>
       </c>
       <c r="B24" t="n">
-        <v>707.0</v>
+        <v>760.0</v>
       </c>
       <c r="C24" t="n">
         <v>127.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E24" t="n">
-        <v>88.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>952.0</v>
+        <v>1015.0</v>
       </c>
       <c r="B25" t="n">
-        <v>841.0</v>
+        <v>867.0</v>
       </c>
       <c r="C25" t="n">
-        <v>157.0</v>
+        <v>137.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E25" t="n">
-        <v>111.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1115.0</v>
+        <v>1190.0</v>
       </c>
       <c r="B26" t="n">
-        <v>976.0</v>
+        <v>1008.0</v>
       </c>
       <c r="C26" t="n">
-        <v>163.0</v>
+        <v>175.0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>138.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1299.0</v>
+        <v>1352.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1129.0</v>
+        <v>1131.0</v>
       </c>
       <c r="C27" t="n">
-        <v>184.0</v>
+        <v>162.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" t="n">
-        <v>169.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1519.0</v>
+        <v>1566.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1310.0</v>
+        <v>1301.0</v>
       </c>
       <c r="C28" t="n">
-        <v>220.0</v>
+        <v>214.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E28" t="n">
-        <v>208.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1735.0</v>
+        <v>1844.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1482.0</v>
+        <v>1532.0</v>
       </c>
       <c r="C29" t="n">
-        <v>216.0</v>
+        <v>278.0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E29" t="n">
-        <v>251.0</v>
+        <v>308.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1976.0</v>
+        <v>2129.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1672.0</v>
+        <v>1764.0</v>
       </c>
       <c r="C30" t="n">
-        <v>241.0</v>
+        <v>285.0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E30" t="n">
-        <v>302.0</v>
+        <v>361.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2241.0</v>
+        <v>2482.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1872.0</v>
+        <v>2048.0</v>
       </c>
       <c r="C31" t="n">
-        <v>265.0</v>
+        <v>353.0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E31" t="n">
-        <v>367.0</v>
+        <v>428.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2530.0</v>
+        <v>2904.0</v>
       </c>
       <c r="B32" t="n">
-        <v>2068.0</v>
+        <v>2392.0</v>
       </c>
       <c r="C32" t="n">
-        <v>289.0</v>
+        <v>422.0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E32" t="n">
-        <v>456.0</v>
+        <v>503.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2864.0</v>
+        <v>3403.0</v>
       </c>
       <c r="B33" t="n">
-        <v>2299.0</v>
+        <v>2783.0</v>
       </c>
       <c r="C33" t="n">
-        <v>334.0</v>
+        <v>499.0</v>
       </c>
       <c r="D33" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E33" t="n">
-        <v>559.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3229.0</v>
+        <v>3885.0</v>
       </c>
       <c r="B34" t="n">
-        <v>2554.0</v>
+        <v>3145.0</v>
       </c>
       <c r="C34" t="n">
-        <v>365.0</v>
+        <v>482.0</v>
       </c>
       <c r="D34" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E34" t="n">
-        <v>667.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3661.0</v>
+        <v>4484.0</v>
       </c>
       <c r="B35" t="n">
-        <v>2858.0</v>
+        <v>3621.0</v>
       </c>
       <c r="C35" t="n">
-        <v>432.0</v>
+        <v>599.0</v>
       </c>
       <c r="D35" t="n">
         <v>13.0</v>
       </c>
       <c r="E35" t="n">
-        <v>790.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4093.0</v>
+        <v>5194.0</v>
       </c>
       <c r="B36" t="n">
-        <v>3150.0</v>
+        <v>4184.0</v>
       </c>
       <c r="C36" t="n">
-        <v>432.0</v>
+        <v>710.0</v>
       </c>
       <c r="D36" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="E36" t="n">
-        <v>929.0</v>
+        <v>995.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4552.0</v>
+        <v>6032.0</v>
       </c>
       <c r="B37" t="n">
-        <v>3467.0</v>
+        <v>4844.0</v>
       </c>
       <c r="C37" t="n">
-        <v>459.0</v>
+        <v>838.0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="E37" t="n">
-        <v>1069.0</v>
+        <v>1166.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5038.0</v>
+        <v>7083.0</v>
       </c>
       <c r="B38" t="n">
-        <v>3792.0</v>
+        <v>5703.0</v>
       </c>
       <c r="C38" t="n">
-        <v>486.0</v>
+        <v>1051.0</v>
       </c>
       <c r="D38" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1226.0</v>
+        <v>1356.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5573.0</v>
+        <v>8229.0</v>
       </c>
       <c r="B39" t="n">
-        <v>4151.0</v>
+        <v>6616.0</v>
       </c>
       <c r="C39" t="n">
-        <v>535.0</v>
+        <v>1146.0</v>
       </c>
       <c r="D39" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1400.0</v>
+        <v>1587.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6142.0</v>
+        <v>9565.0</v>
       </c>
       <c r="B40" t="n">
-        <v>4490.0</v>
+        <v>7672.0</v>
       </c>
       <c r="C40" t="n">
-        <v>569.0</v>
+        <v>1336.0</v>
       </c>
       <c r="D40" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1626.0</v>
+        <v>1865.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6749.0</v>
+        <v>11079.0</v>
       </c>
       <c r="B41" t="n">
-        <v>4864.0</v>
+        <v>8920.0</v>
       </c>
       <c r="C41" t="n">
-        <v>607.0</v>
+        <v>1514.0</v>
       </c>
       <c r="D41" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1853.0</v>
+        <v>2130.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7372.0</v>
+        <v>12746.0</v>
       </c>
       <c r="B42" t="n">
-        <v>5236.0</v>
+        <v>10243.0</v>
       </c>
       <c r="C42" t="n">
-        <v>623.0</v>
+        <v>1667.0</v>
       </c>
       <c r="D42" t="n">
         <v>36.0</v>
       </c>
       <c r="E42" t="n">
-        <v>2100.0</v>
+        <v>2467.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8004.0</v>
+        <v>14731.0</v>
       </c>
       <c r="B43" t="n">
-        <v>5585.0</v>
+        <v>11828.0</v>
       </c>
       <c r="C43" t="n">
-        <v>632.0</v>
+        <v>1985.0</v>
       </c>
       <c r="D43" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="E43" t="n">
-        <v>2377.0</v>
+        <v>2859.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8640.0</v>
+        <v>16962.0</v>
       </c>
       <c r="B44" t="n">
-        <v>5900.0</v>
+        <v>13565.0</v>
       </c>
       <c r="C44" t="n">
-        <v>636.0</v>
+        <v>2231.0</v>
       </c>
       <c r="D44" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="E44" t="n">
-        <v>2695.0</v>
+        <v>3348.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9315.0</v>
+        <v>19515.0</v>
       </c>
       <c r="B45" t="n">
-        <v>6247.0</v>
+        <v>15567.0</v>
       </c>
       <c r="C45" t="n">
-        <v>675.0</v>
+        <v>2553.0</v>
       </c>
       <c r="D45" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="E45" t="n">
-        <v>3016.0</v>
+        <v>3894.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9964.0</v>
+        <v>22364.0</v>
       </c>
       <c r="B46" t="n">
-        <v>6509.0</v>
+        <v>17792.0</v>
       </c>
       <c r="C46" t="n">
-        <v>649.0</v>
+        <v>2849.0</v>
       </c>
       <c r="D46" t="n">
-        <v>59.0</v>
+        <v>66.0</v>
       </c>
       <c r="E46" t="n">
-        <v>3396.0</v>
+        <v>4506.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10687.0</v>
+        <v>25600.0</v>
       </c>
       <c r="B47" t="n">
-        <v>6802.0</v>
+        <v>20274.0</v>
       </c>
       <c r="C47" t="n">
-        <v>723.0</v>
+        <v>3236.0</v>
       </c>
       <c r="D47" t="n">
-        <v>65.0</v>
+        <v>77.0</v>
       </c>
       <c r="E47" t="n">
-        <v>3820.0</v>
+        <v>5249.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11367.0</v>
+        <v>29219.0</v>
       </c>
       <c r="B48" t="n">
-        <v>7041.0</v>
+        <v>23039.0</v>
       </c>
       <c r="C48" t="n">
-        <v>680.0</v>
+        <v>3619.0</v>
       </c>
       <c r="D48" t="n">
-        <v>75.0</v>
+        <v>90.0</v>
       </c>
       <c r="E48" t="n">
-        <v>4251.0</v>
+        <v>6090.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>12090.0</v>
+        <v>33080.0</v>
       </c>
       <c r="B49" t="n">
-        <v>7294.0</v>
+        <v>25882.0</v>
       </c>
       <c r="C49" t="n">
-        <v>723.0</v>
+        <v>3861.0</v>
       </c>
       <c r="D49" t="n">
-        <v>86.0</v>
+        <v>101.0</v>
       </c>
       <c r="E49" t="n">
-        <v>4710.0</v>
+        <v>7097.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12848.0</v>
+        <v>37244.0</v>
       </c>
       <c r="B50" t="n">
-        <v>7581.0</v>
+        <v>28852.0</v>
       </c>
       <c r="C50" t="n">
-        <v>758.0</v>
+        <v>4164.0</v>
       </c>
       <c r="D50" t="n">
-        <v>96.0</v>
+        <v>114.0</v>
       </c>
       <c r="E50" t="n">
-        <v>5171.0</v>
+        <v>8278.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13489.0</v>
+        <v>41921.0</v>
       </c>
       <c r="B51" t="n">
-        <v>7676.0</v>
+        <v>32199.0</v>
       </c>
       <c r="C51" t="n">
-        <v>641.0</v>
+        <v>4677.0</v>
       </c>
       <c r="D51" t="n">
-        <v>105.0</v>
+        <v>142.0</v>
       </c>
       <c r="E51" t="n">
-        <v>5708.0</v>
+        <v>9580.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>14185.0</v>
+        <v>46947.0</v>
       </c>
       <c r="B52" t="n">
-        <v>7843.0</v>
+        <v>35714.0</v>
       </c>
       <c r="C52" t="n">
-        <v>696.0</v>
+        <v>5026.0</v>
       </c>
       <c r="D52" t="n">
-        <v>113.0</v>
+        <v>167.0</v>
       </c>
       <c r="E52" t="n">
-        <v>6229.0</v>
+        <v>11066.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>14821.0</v>
+        <v>52361.0</v>
       </c>
       <c r="B53" t="n">
-        <v>7921.0</v>
+        <v>39398.0</v>
       </c>
       <c r="C53" t="n">
-        <v>636.0</v>
+        <v>5414.0</v>
       </c>
       <c r="D53" t="n">
-        <v>121.0</v>
+        <v>195.0</v>
       </c>
       <c r="E53" t="n">
-        <v>6779.0</v>
+        <v>12768.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>15483.0</v>
+        <v>58002.0</v>
       </c>
       <c r="B54" t="n">
-        <v>7976.0</v>
+        <v>43049.0</v>
       </c>
       <c r="C54" t="n">
-        <v>662.0</v>
+        <v>5641.0</v>
       </c>
       <c r="D54" t="n">
-        <v>131.0</v>
+        <v>231.0</v>
       </c>
       <c r="E54" t="n">
-        <v>7376.0</v>
+        <v>14722.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>16097.0</v>
+        <v>63879.0</v>
       </c>
       <c r="B55" t="n">
-        <v>8015.0</v>
+        <v>46732.0</v>
       </c>
       <c r="C55" t="n">
-        <v>614.0</v>
+        <v>5877.0</v>
       </c>
       <c r="D55" t="n">
-        <v>143.0</v>
+        <v>263.0</v>
       </c>
       <c r="E55" t="n">
-        <v>7939.0</v>
+        <v>16884.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>16729.0</v>
+        <v>69906.0</v>
       </c>
       <c r="B56" t="n">
-        <v>8036.0</v>
+        <v>50238.0</v>
       </c>
       <c r="C56" t="n">
-        <v>632.0</v>
+        <v>6027.0</v>
       </c>
       <c r="D56" t="n">
-        <v>152.0</v>
+        <v>304.0</v>
       </c>
       <c r="E56" t="n">
-        <v>8541.0</v>
+        <v>19364.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17287.0</v>
+        <v>76270.0</v>
       </c>
       <c r="B57" t="n">
-        <v>7946.0</v>
+        <v>53988.0</v>
       </c>
       <c r="C57" t="n">
-        <v>558.0</v>
+        <v>6364.0</v>
       </c>
       <c r="D57" t="n">
-        <v>162.0</v>
+        <v>351.0</v>
       </c>
       <c r="E57" t="n">
-        <v>9179.0</v>
+        <v>21931.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>17870.0</v>
+        <v>82708.0</v>
       </c>
       <c r="B58" t="n">
-        <v>7883.0</v>
+        <v>57360.0</v>
       </c>
       <c r="C58" t="n">
-        <v>583.0</v>
+        <v>6438.0</v>
       </c>
       <c r="D58" t="n">
-        <v>176.0</v>
+        <v>394.0</v>
       </c>
       <c r="E58" t="n">
-        <v>9811.0</v>
+        <v>24954.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18392.0</v>
+        <v>89373.0</v>
       </c>
       <c r="B59" t="n">
-        <v>7734.0</v>
+        <v>60794.0</v>
       </c>
       <c r="C59" t="n">
-        <v>522.0</v>
+        <v>6665.0</v>
       </c>
       <c r="D59" t="n">
-        <v>184.0</v>
+        <v>451.0</v>
       </c>
       <c r="E59" t="n">
-        <v>10474.0</v>
+        <v>28128.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18872.0</v>
+        <v>96128.0</v>
       </c>
       <c r="B60" t="n">
-        <v>7556.0</v>
+        <v>63980.0</v>
       </c>
       <c r="C60" t="n">
-        <v>480.0</v>
+        <v>6755.0</v>
       </c>
       <c r="D60" t="n">
-        <v>197.0</v>
+        <v>511.0</v>
       </c>
       <c r="E60" t="n">
-        <v>11119.0</v>
+        <v>31637.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>19339.0</v>
+        <v>103160.0</v>
       </c>
       <c r="B61" t="n">
-        <v>7357.0</v>
+        <v>67105.0</v>
       </c>
       <c r="C61" t="n">
-        <v>467.0</v>
+        <v>7032.0</v>
       </c>
       <c r="D61" t="n">
-        <v>212.0</v>
+        <v>585.0</v>
       </c>
       <c r="E61" t="n">
-        <v>11770.0</v>
+        <v>35470.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>19744.0</v>
+        <v>110221.0</v>
       </c>
       <c r="B62" t="n">
-        <v>7129.0</v>
+        <v>70000.0</v>
       </c>
       <c r="C62" t="n">
-        <v>405.0</v>
+        <v>7061.0</v>
       </c>
       <c r="D62" t="n">
-        <v>227.0</v>
+        <v>666.0</v>
       </c>
       <c r="E62" t="n">
-        <v>12388.0</v>
+        <v>39555.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>20128.0</v>
+        <v>117523.0</v>
       </c>
       <c r="B63" t="n">
-        <v>6862.0</v>
+        <v>72805.0</v>
       </c>
       <c r="C63" t="n">
-        <v>384.0</v>
+        <v>7302.0</v>
       </c>
       <c r="D63" t="n">
-        <v>236.0</v>
+        <v>742.0</v>
       </c>
       <c r="E63" t="n">
-        <v>13030.0</v>
+        <v>43976.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>20525.0</v>
+        <v>124886.0</v>
       </c>
       <c r="B64" t="n">
-        <v>6621.0</v>
+        <v>75316.0</v>
       </c>
       <c r="C64" t="n">
-        <v>397.0</v>
+        <v>7363.0</v>
       </c>
       <c r="D64" t="n">
-        <v>256.0</v>
+        <v>823.0</v>
       </c>
       <c r="E64" t="n">
-        <v>13648.0</v>
+        <v>48747.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20866.0</v>
+        <v>132177.0</v>
       </c>
       <c r="B65" t="n">
-        <v>6351.0</v>
+        <v>77613.0</v>
       </c>
       <c r="C65" t="n">
-        <v>341.0</v>
+        <v>7291.0</v>
       </c>
       <c r="D65" t="n">
-        <v>262.0</v>
+        <v>920.0</v>
       </c>
       <c r="E65" t="n">
-        <v>14253.0</v>
+        <v>53644.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>21184.0</v>
+        <v>139531.0</v>
       </c>
       <c r="B66" t="n">
-        <v>6081.0</v>
+        <v>79656.0</v>
       </c>
       <c r="C66" t="n">
-        <v>318.0</v>
+        <v>7354.0</v>
       </c>
       <c r="D66" t="n">
-        <v>272.0</v>
+        <v>1005.0</v>
       </c>
       <c r="E66" t="n">
-        <v>14831.0</v>
+        <v>58870.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>21478.0</v>
+        <v>147027.0</v>
       </c>
       <c r="B67" t="n">
-        <v>5783.0</v>
+        <v>81499.0</v>
       </c>
       <c r="C67" t="n">
-        <v>294.0</v>
+        <v>7496.0</v>
       </c>
       <c r="D67" t="n">
-        <v>280.0</v>
+        <v>1129.0</v>
       </c>
       <c r="E67" t="n">
-        <v>15415.0</v>
+        <v>64399.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>21751.0</v>
+        <v>154407.0</v>
       </c>
       <c r="B68" t="n">
-        <v>5459.0</v>
+        <v>82984.0</v>
       </c>
       <c r="C68" t="n">
-        <v>273.0</v>
+        <v>7380.0</v>
       </c>
       <c r="D68" t="n">
-        <v>297.0</v>
+        <v>1251.0</v>
       </c>
       <c r="E68" t="n">
-        <v>15995.0</v>
+        <v>70172.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>22004.0</v>
+        <v>161824.0</v>
       </c>
       <c r="B69" t="n">
-        <v>5190.0</v>
+        <v>84385.0</v>
       </c>
       <c r="C69" t="n">
-        <v>253.0</v>
+        <v>7417.0</v>
       </c>
       <c r="D69" t="n">
-        <v>303.0</v>
+        <v>1343.0</v>
       </c>
       <c r="E69" t="n">
-        <v>16511.0</v>
+        <v>76096.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>22250.0</v>
+        <v>169307.0</v>
       </c>
       <c r="B70" t="n">
-        <v>4919.0</v>
+        <v>85665.0</v>
       </c>
       <c r="C70" t="n">
-        <v>246.0</v>
+        <v>7483.0</v>
       </c>
       <c r="D70" t="n">
-        <v>310.0</v>
+        <v>1471.0</v>
       </c>
       <c r="E70" t="n">
-        <v>17021.0</v>
+        <v>82171.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>22443.0</v>
+        <v>176745.0</v>
       </c>
       <c r="B71" t="n">
-        <v>4601.0</v>
+        <v>86590.0</v>
       </c>
       <c r="C71" t="n">
-        <v>193.0</v>
+        <v>7438.0</v>
       </c>
       <c r="D71" t="n">
-        <v>316.0</v>
+        <v>1582.0</v>
       </c>
       <c r="E71" t="n">
-        <v>17526.0</v>
+        <v>88573.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>22634.0</v>
+        <v>184008.0</v>
       </c>
       <c r="B72" t="n">
-        <v>4314.0</v>
+        <v>87345.0</v>
       </c>
       <c r="C72" t="n">
-        <v>191.0</v>
+        <v>7263.0</v>
       </c>
       <c r="D72" t="n">
-        <v>325.0</v>
+        <v>1695.0</v>
       </c>
       <c r="E72" t="n">
-        <v>17995.0</v>
+        <v>94968.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>22824.0</v>
+        <v>191197.0</v>
       </c>
       <c r="B73" t="n">
-        <v>4039.0</v>
+        <v>87831.0</v>
       </c>
       <c r="C73" t="n">
-        <v>190.0</v>
+        <v>7189.0</v>
       </c>
       <c r="D73" t="n">
-        <v>331.0</v>
+        <v>1802.0</v>
       </c>
       <c r="E73" t="n">
-        <v>18454.0</v>
+        <v>101564.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>22983.0</v>
+        <v>198292.0</v>
       </c>
       <c r="B74" t="n">
-        <v>3778.0</v>
+        <v>88063.0</v>
       </c>
       <c r="C74" t="n">
-        <v>159.0</v>
+        <v>7095.0</v>
       </c>
       <c r="D74" t="n">
-        <v>336.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E74" t="n">
-        <v>18869.0</v>
+        <v>108293.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>23130.0</v>
+        <v>205245.0</v>
       </c>
       <c r="B75" t="n">
-        <v>3558.0</v>
+        <v>88251.0</v>
       </c>
       <c r="C75" t="n">
-        <v>147.0</v>
+        <v>6953.0</v>
       </c>
       <c r="D75" t="n">
-        <v>342.0</v>
+        <v>2073.0</v>
       </c>
       <c r="E75" t="n">
-        <v>19230.0</v>
+        <v>114921.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>23244.0</v>
+        <v>212011.0</v>
       </c>
       <c r="B76" t="n">
-        <v>3266.0</v>
+        <v>88087.0</v>
       </c>
       <c r="C76" t="n">
-        <v>114.0</v>
+        <v>6766.0</v>
       </c>
       <c r="D76" t="n">
-        <v>349.0</v>
+        <v>2197.0</v>
       </c>
       <c r="E76" t="n">
-        <v>19629.0</v>
+        <v>121727.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>23363.0</v>
+        <v>218613.0</v>
       </c>
       <c r="B77" t="n">
-        <v>3001.0</v>
+        <v>87716.0</v>
       </c>
       <c r="C77" t="n">
-        <v>119.0</v>
+        <v>6602.0</v>
       </c>
       <c r="D77" t="n">
-        <v>357.0</v>
+        <v>2334.0</v>
       </c>
       <c r="E77" t="n">
-        <v>20005.0</v>
+        <v>128563.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>23466.0</v>
+        <v>225077.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2749.0</v>
+        <v>87118.0</v>
       </c>
       <c r="C78" t="n">
-        <v>103.0</v>
+        <v>6464.0</v>
       </c>
       <c r="D78" t="n">
-        <v>364.0</v>
+        <v>2467.0</v>
       </c>
       <c r="E78" t="n">
-        <v>20353.0</v>
+        <v>135492.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>23584.0</v>
+        <v>231294.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2538.0</v>
+        <v>86096.0</v>
       </c>
       <c r="C79" t="n">
-        <v>118.0</v>
+        <v>6217.0</v>
       </c>
       <c r="D79" t="n">
-        <v>370.0</v>
+        <v>2578.0</v>
       </c>
       <c r="E79" t="n">
-        <v>20676.0</v>
+        <v>142620.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>23685.0</v>
+        <v>237502.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2369.0</v>
+        <v>85076.0</v>
       </c>
       <c r="C80" t="n">
-        <v>101.0</v>
+        <v>6208.0</v>
       </c>
       <c r="D80" t="n">
-        <v>374.0</v>
+        <v>2713.0</v>
       </c>
       <c r="E80" t="n">
-        <v>20942.0</v>
+        <v>149713.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>23760.0</v>
+        <v>243636.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2167.0</v>
+        <v>84006.0</v>
       </c>
       <c r="C81" t="n">
-        <v>75.0</v>
+        <v>6134.0</v>
       </c>
       <c r="D81" t="n">
-        <v>378.0</v>
+        <v>2841.0</v>
       </c>
       <c r="E81" t="n">
-        <v>21215.0</v>
+        <v>156789.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>23821.0</v>
+        <v>249759.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1969.0</v>
+        <v>83002.0</v>
       </c>
       <c r="C82" t="n">
-        <v>61.0</v>
+        <v>6123.0</v>
       </c>
       <c r="D82" t="n">
-        <v>380.0</v>
+        <v>2972.0</v>
       </c>
       <c r="E82" t="n">
-        <v>21472.0</v>
+        <v>163785.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>23881.0</v>
+        <v>255721.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1805.0</v>
+        <v>81926.0</v>
       </c>
       <c r="C83" t="n">
-        <v>60.0</v>
+        <v>5962.0</v>
       </c>
       <c r="D83" t="n">
-        <v>383.0</v>
+        <v>3090.0</v>
       </c>
       <c r="E83" t="n">
-        <v>21693.0</v>
+        <v>170705.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>23935.0</v>
+        <v>261311.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1651.0</v>
+        <v>80597.0</v>
       </c>
       <c r="C84" t="n">
-        <v>54.0</v>
+        <v>5590.0</v>
       </c>
       <c r="D84" t="n">
-        <v>387.0</v>
+        <v>3234.0</v>
       </c>
       <c r="E84" t="n">
-        <v>21897.0</v>
+        <v>177480.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>23988.0</v>
+        <v>266843.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1514.0</v>
+        <v>79053.0</v>
       </c>
       <c r="C85" t="n">
-        <v>53.0</v>
+        <v>5532.0</v>
       </c>
       <c r="D85" t="n">
-        <v>391.0</v>
+        <v>3364.0</v>
       </c>
       <c r="E85" t="n">
-        <v>22083.0</v>
+        <v>184426.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>24022.0</v>
+        <v>272179.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1379.0</v>
+        <v>77538.0</v>
       </c>
       <c r="C86" t="n">
-        <v>34.0</v>
+        <v>5336.0</v>
       </c>
       <c r="D86" t="n">
-        <v>393.0</v>
+        <v>3466.0</v>
       </c>
       <c r="E86" t="n">
-        <v>22250.0</v>
+        <v>191175.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>24060.0</v>
+        <v>277325.0</v>
       </c>
       <c r="B87" t="n">
-        <v>1267.0</v>
+        <v>75950.0</v>
       </c>
       <c r="C87" t="n">
-        <v>38.0</v>
+        <v>5146.0</v>
       </c>
       <c r="D87" t="n">
-        <v>394.0</v>
+        <v>3590.0</v>
       </c>
       <c r="E87" t="n">
-        <v>22399.0</v>
+        <v>197785.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>24091.0</v>
+        <v>282471.0</v>
       </c>
       <c r="B88" t="n">
-        <v>1158.0</v>
+        <v>74500.0</v>
       </c>
       <c r="C88" t="n">
-        <v>31.0</v>
+        <v>5146.0</v>
       </c>
       <c r="D88" t="n">
-        <v>396.0</v>
+        <v>3694.0</v>
       </c>
       <c r="E88" t="n">
-        <v>22537.0</v>
+        <v>204277.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>24128.0</v>
+        <v>287600.0</v>
       </c>
       <c r="B89" t="n">
-        <v>1048.0</v>
+        <v>73027.0</v>
       </c>
       <c r="C89" t="n">
-        <v>37.0</v>
+        <v>5129.0</v>
       </c>
       <c r="D89" t="n">
-        <v>398.0</v>
+        <v>3811.0</v>
       </c>
       <c r="E89" t="n">
-        <v>22682.0</v>
+        <v>210762.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>24153.0</v>
+        <v>292334.0</v>
       </c>
       <c r="B90" t="n">
-        <v>930.0</v>
+        <v>71312.0</v>
       </c>
       <c r="C90" t="n">
-        <v>25.0</v>
+        <v>4734.0</v>
       </c>
       <c r="D90" t="n">
-        <v>398.0</v>
+        <v>3920.0</v>
       </c>
       <c r="E90" t="n">
-        <v>22825.0</v>
+        <v>217102.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>24190.0</v>
+        <v>297031.0</v>
       </c>
       <c r="B91" t="n">
-        <v>834.0</v>
+        <v>69609.0</v>
       </c>
       <c r="C91" t="n">
-        <v>37.0</v>
+        <v>4697.0</v>
       </c>
       <c r="D91" t="n">
-        <v>402.0</v>
+        <v>4023.0</v>
       </c>
       <c r="E91" t="n">
-        <v>22954.0</v>
+        <v>223399.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>24224.0</v>
+        <v>301437.0</v>
       </c>
       <c r="B92" t="n">
-        <v>771.0</v>
+        <v>67829.0</v>
       </c>
       <c r="C92" t="n">
-        <v>34.0</v>
+        <v>4406.0</v>
       </c>
       <c r="D92" t="n">
-        <v>402.0</v>
+        <v>4122.0</v>
       </c>
       <c r="E92" t="n">
-        <v>23051.0</v>
+        <v>229486.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>24244.0</v>
+        <v>305806.0</v>
       </c>
       <c r="B93" t="n">
-        <v>706.0</v>
+        <v>66125.0</v>
       </c>
       <c r="C93" t="n">
-        <v>20.0</v>
+        <v>4369.0</v>
       </c>
       <c r="D93" t="n">
-        <v>402.0</v>
+        <v>4217.0</v>
       </c>
       <c r="E93" t="n">
-        <v>23136.0</v>
+        <v>235464.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>24258.0</v>
+        <v>310112.0</v>
       </c>
       <c r="B94" t="n">
-        <v>649.0</v>
+        <v>64506.0</v>
       </c>
       <c r="C94" t="n">
-        <v>14.0</v>
+        <v>4306.0</v>
       </c>
       <c r="D94" t="n">
-        <v>404.0</v>
+        <v>4310.0</v>
       </c>
       <c r="E94" t="n">
-        <v>23205.0</v>
+        <v>241296.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>24278.0</v>
+        <v>314208.0</v>
       </c>
       <c r="B95" t="n">
-        <v>587.0</v>
+        <v>62769.0</v>
       </c>
       <c r="C95" t="n">
-        <v>20.0</v>
+        <v>4096.0</v>
       </c>
       <c r="D95" t="n">
-        <v>406.0</v>
+        <v>4414.0</v>
       </c>
       <c r="E95" t="n">
-        <v>23285.0</v>
+        <v>247025.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>24304.0</v>
+        <v>318323.0</v>
       </c>
       <c r="B96" t="n">
-        <v>535.0</v>
+        <v>61101.0</v>
       </c>
       <c r="C96" t="n">
-        <v>26.0</v>
+        <v>4115.0</v>
       </c>
       <c r="D96" t="n">
-        <v>406.0</v>
+        <v>4503.0</v>
       </c>
       <c r="E96" t="n">
-        <v>23363.0</v>
+        <v>252719.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>24324.0</v>
+        <v>322109.0</v>
       </c>
       <c r="B97" t="n">
-        <v>487.0</v>
+        <v>59361.0</v>
       </c>
       <c r="C97" t="n">
-        <v>20.0</v>
+        <v>3786.0</v>
       </c>
       <c r="D97" t="n">
-        <v>406.0</v>
+        <v>4595.0</v>
       </c>
       <c r="E97" t="n">
-        <v>23431.0</v>
+        <v>258153.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>24343.0</v>
+        <v>325795.0</v>
       </c>
       <c r="B98" t="n">
-        <v>442.0</v>
+        <v>57579.0</v>
       </c>
       <c r="C98" t="n">
-        <v>19.0</v>
+        <v>3686.0</v>
       </c>
       <c r="D98" t="n">
-        <v>407.0</v>
+        <v>4680.0</v>
       </c>
       <c r="E98" t="n">
-        <v>23494.0</v>
+        <v>263536.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>24357.0</v>
+        <v>329324.0</v>
       </c>
       <c r="B99" t="n">
-        <v>397.0</v>
+        <v>55700.0</v>
       </c>
       <c r="C99" t="n">
-        <v>14.0</v>
+        <v>3529.0</v>
       </c>
       <c r="D99" t="n">
-        <v>407.0</v>
+        <v>4786.0</v>
       </c>
       <c r="E99" t="n">
-        <v>23553.0</v>
+        <v>268838.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>24374.0</v>
+        <v>332785.0</v>
       </c>
       <c r="B100" t="n">
-        <v>369.0</v>
+        <v>54197.0</v>
       </c>
       <c r="C100" t="n">
-        <v>17.0</v>
+        <v>3461.0</v>
       </c>
       <c r="D100" t="n">
-        <v>409.0</v>
+        <v>4868.0</v>
       </c>
       <c r="E100" t="n">
-        <v>23596.0</v>
+        <v>273720.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>24387.0</v>
+        <v>336128.0</v>
       </c>
       <c r="B101" t="n">
-        <v>344.0</v>
+        <v>52576.0</v>
       </c>
       <c r="C101" t="n">
-        <v>13.0</v>
+        <v>3343.0</v>
       </c>
       <c r="D101" t="n">
-        <v>409.0</v>
+        <v>4944.0</v>
       </c>
       <c r="E101" t="n">
-        <v>23634.0</v>
+        <v>278608.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>24396.0</v>
+        <v>339317.0</v>
       </c>
       <c r="B102" t="n">
-        <v>316.0</v>
+        <v>50963.0</v>
       </c>
       <c r="C102" t="n">
-        <v>9.0</v>
+        <v>3189.0</v>
       </c>
       <c r="D102" t="n">
-        <v>409.0</v>
+        <v>5026.0</v>
       </c>
       <c r="E102" t="n">
-        <v>23671.0</v>
+        <v>283328.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>24407.0</v>
+        <v>342356.0</v>
       </c>
       <c r="B103" t="n">
-        <v>286.0</v>
+        <v>49280.0</v>
       </c>
       <c r="C103" t="n">
-        <v>11.0</v>
+        <v>3039.0</v>
       </c>
       <c r="D103" t="n">
-        <v>411.0</v>
+        <v>5094.0</v>
       </c>
       <c r="E103" t="n">
-        <v>23710.0</v>
+        <v>287982.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>24420.0</v>
+        <v>345246.0</v>
       </c>
       <c r="B104" t="n">
-        <v>271.0</v>
+        <v>47606.0</v>
       </c>
       <c r="C104" t="n">
-        <v>13.0</v>
+        <v>2890.0</v>
       </c>
       <c r="D104" t="n">
-        <v>411.0</v>
+        <v>5167.0</v>
       </c>
       <c r="E104" t="n">
-        <v>23738.0</v>
+        <v>292473.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>24428.0</v>
+        <v>348028.0</v>
       </c>
       <c r="B105" t="n">
-        <v>242.0</v>
+        <v>45812.0</v>
       </c>
       <c r="C105" t="n">
-        <v>8.0</v>
+        <v>2782.0</v>
       </c>
       <c r="D105" t="n">
-        <v>411.0</v>
+        <v>5248.0</v>
       </c>
       <c r="E105" t="n">
-        <v>23775.0</v>
+        <v>296968.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>24440.0</v>
+        <v>350800.0</v>
       </c>
       <c r="B106" t="n">
-        <v>223.0</v>
+        <v>44358.0</v>
       </c>
       <c r="C106" t="n">
-        <v>12.0</v>
+        <v>2772.0</v>
       </c>
       <c r="D106" t="n">
-        <v>411.0</v>
+        <v>5311.0</v>
       </c>
       <c r="E106" t="n">
-        <v>23806.0</v>
+        <v>301131.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>24450.0</v>
+        <v>353557.0</v>
       </c>
       <c r="B107" t="n">
-        <v>209.0</v>
+        <v>42963.0</v>
       </c>
       <c r="C107" t="n">
-        <v>10.0</v>
+        <v>2757.0</v>
       </c>
       <c r="D107" t="n">
-        <v>411.0</v>
+        <v>5373.0</v>
       </c>
       <c r="E107" t="n">
-        <v>23830.0</v>
+        <v>305221.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>24453.0</v>
+        <v>356097.0</v>
       </c>
       <c r="B108" t="n">
-        <v>187.0</v>
+        <v>41524.0</v>
       </c>
       <c r="C108" t="n">
-        <v>3.0</v>
+        <v>2540.0</v>
       </c>
       <c r="D108" t="n">
-        <v>411.0</v>
+        <v>5437.0</v>
       </c>
       <c r="E108" t="n">
-        <v>23855.0</v>
+        <v>309136.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>24457.0</v>
+        <v>358642.0</v>
       </c>
       <c r="B109" t="n">
-        <v>170.0</v>
+        <v>40199.0</v>
       </c>
       <c r="C109" t="n">
-        <v>4.0</v>
+        <v>2545.0</v>
       </c>
       <c r="D109" t="n">
-        <v>413.0</v>
+        <v>5496.0</v>
       </c>
       <c r="E109" t="n">
-        <v>23874.0</v>
+        <v>312947.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results1.xlsx
+++ b/src/output/results1.xlsx
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="B8" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -482,13 +482,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="B9" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="C9" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="B10" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C10" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -516,30 +516,30 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
       <c r="B11" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="C11" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>70.0</v>
+        <v>67.0</v>
       </c>
       <c r="B12" t="n">
-        <v>69.0</v>
+        <v>66.0</v>
       </c>
       <c r="C12" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
@@ -550,1651 +550,1651 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
       <c r="B13" t="n">
         <v>83.0</v>
       </c>
       <c r="C13" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>109.0</v>
+        <v>102.0</v>
       </c>
       <c r="B14" t="n">
-        <v>106.0</v>
+        <v>98.0</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>143.0</v>
+        <v>115.0</v>
       </c>
       <c r="B15" t="n">
-        <v>139.0</v>
+        <v>107.0</v>
       </c>
       <c r="C15" t="n">
-        <v>34.0</v>
+        <v>13.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>177.0</v>
+        <v>141.0</v>
       </c>
       <c r="B16" t="n">
-        <v>169.0</v>
+        <v>129.0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>218.0</v>
+        <v>189.0</v>
       </c>
       <c r="B17" t="n">
-        <v>204.0</v>
+        <v>173.0</v>
       </c>
       <c r="C17" t="n">
-        <v>41.0</v>
+        <v>48.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>273.0</v>
+        <v>229.0</v>
       </c>
       <c r="B18" t="n">
-        <v>247.0</v>
+        <v>205.0</v>
       </c>
       <c r="C18" t="n">
-        <v>55.0</v>
+        <v>40.0</v>
       </c>
       <c r="D18" t="n">
         <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>342.0</v>
+        <v>274.0</v>
       </c>
       <c r="B19" t="n">
-        <v>309.0</v>
+        <v>244.0</v>
       </c>
       <c r="C19" t="n">
-        <v>69.0</v>
+        <v>45.0</v>
       </c>
       <c r="D19" t="n">
         <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>429.0</v>
+        <v>343.0</v>
       </c>
       <c r="B20" t="n">
-        <v>385.0</v>
+        <v>307.0</v>
       </c>
       <c r="C20" t="n">
-        <v>87.0</v>
+        <v>69.0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>42.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>516.0</v>
+        <v>422.0</v>
       </c>
       <c r="B21" t="n">
-        <v>460.0</v>
+        <v>378.0</v>
       </c>
       <c r="C21" t="n">
-        <v>87.0</v>
+        <v>79.0</v>
       </c>
       <c r="D21" t="n">
         <v>2.0</v>
       </c>
       <c r="E21" t="n">
-        <v>54.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>615.0</v>
+        <v>496.0</v>
       </c>
       <c r="B22" t="n">
-        <v>541.0</v>
+        <v>446.0</v>
       </c>
       <c r="C22" t="n">
-        <v>99.0</v>
+        <v>74.0</v>
       </c>
       <c r="D22" t="n">
         <v>2.0</v>
       </c>
       <c r="E22" t="n">
-        <v>72.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>751.0</v>
+        <v>591.0</v>
       </c>
       <c r="B23" t="n">
-        <v>661.0</v>
+        <v>523.0</v>
       </c>
       <c r="C23" t="n">
-        <v>136.0</v>
+        <v>95.0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" t="n">
-        <v>88.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>878.0</v>
+        <v>701.0</v>
       </c>
       <c r="B24" t="n">
-        <v>760.0</v>
+        <v>605.0</v>
       </c>
       <c r="C24" t="n">
-        <v>127.0</v>
+        <v>110.0</v>
       </c>
       <c r="D24" t="n">
         <v>3.0</v>
       </c>
       <c r="E24" t="n">
-        <v>115.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1015.0</v>
+        <v>820.0</v>
       </c>
       <c r="B25" t="n">
-        <v>867.0</v>
+        <v>697.0</v>
       </c>
       <c r="C25" t="n">
-        <v>137.0</v>
+        <v>119.0</v>
       </c>
       <c r="D25" t="n">
         <v>3.0</v>
       </c>
       <c r="E25" t="n">
-        <v>145.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1190.0</v>
+        <v>942.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1008.0</v>
+        <v>789.0</v>
       </c>
       <c r="C26" t="n">
-        <v>175.0</v>
+        <v>122.0</v>
       </c>
       <c r="D26" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E26" t="n">
-        <v>178.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1352.0</v>
+        <v>1089.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1131.0</v>
+        <v>902.0</v>
       </c>
       <c r="C27" t="n">
-        <v>162.0</v>
+        <v>147.0</v>
       </c>
       <c r="D27" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E27" t="n">
-        <v>217.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1566.0</v>
+        <v>1263.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1301.0</v>
+        <v>1048.0</v>
       </c>
       <c r="C28" t="n">
-        <v>214.0</v>
+        <v>174.0</v>
       </c>
       <c r="D28" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1844.0</v>
+        <v>1425.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1532.0</v>
+        <v>1164.0</v>
       </c>
       <c r="C29" t="n">
-        <v>278.0</v>
+        <v>162.0</v>
       </c>
       <c r="D29" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E29" t="n">
-        <v>308.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2129.0</v>
+        <v>1642.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1764.0</v>
+        <v>1336.0</v>
       </c>
       <c r="C30" t="n">
-        <v>285.0</v>
+        <v>217.0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E30" t="n">
-        <v>361.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2482.0</v>
+        <v>1886.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2048.0</v>
+        <v>1521.0</v>
       </c>
       <c r="C31" t="n">
-        <v>353.0</v>
+        <v>244.0</v>
       </c>
       <c r="D31" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E31" t="n">
-        <v>428.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2904.0</v>
+        <v>2188.0</v>
       </c>
       <c r="B32" t="n">
-        <v>2392.0</v>
+        <v>1746.0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.0</v>
+        <v>302.0</v>
       </c>
       <c r="D32" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="E32" t="n">
-        <v>503.0</v>
+        <v>438.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3403.0</v>
+        <v>2526.0</v>
       </c>
       <c r="B33" t="n">
-        <v>2783.0</v>
+        <v>2007.0</v>
       </c>
       <c r="C33" t="n">
-        <v>499.0</v>
+        <v>338.0</v>
       </c>
       <c r="D33" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E33" t="n">
-        <v>611.0</v>
+        <v>511.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3885.0</v>
+        <v>2959.0</v>
       </c>
       <c r="B34" t="n">
-        <v>3145.0</v>
+        <v>2351.0</v>
       </c>
       <c r="C34" t="n">
-        <v>482.0</v>
+        <v>433.0</v>
       </c>
       <c r="D34" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="E34" t="n">
-        <v>730.0</v>
+        <v>596.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4484.0</v>
+        <v>3411.0</v>
       </c>
       <c r="B35" t="n">
-        <v>3621.0</v>
+        <v>2710.0</v>
       </c>
       <c r="C35" t="n">
-        <v>599.0</v>
+        <v>452.0</v>
       </c>
       <c r="D35" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="E35" t="n">
-        <v>850.0</v>
+        <v>685.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5194.0</v>
+        <v>3970.0</v>
       </c>
       <c r="B36" t="n">
-        <v>4184.0</v>
+        <v>3149.0</v>
       </c>
       <c r="C36" t="n">
-        <v>710.0</v>
+        <v>559.0</v>
       </c>
       <c r="D36" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="E36" t="n">
-        <v>995.0</v>
+        <v>804.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6032.0</v>
+        <v>4620.0</v>
       </c>
       <c r="B37" t="n">
-        <v>4844.0</v>
+        <v>3665.0</v>
       </c>
       <c r="C37" t="n">
-        <v>838.0</v>
+        <v>650.0</v>
       </c>
       <c r="D37" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="E37" t="n">
-        <v>1166.0</v>
+        <v>937.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7083.0</v>
+        <v>5399.0</v>
       </c>
       <c r="B38" t="n">
-        <v>5703.0</v>
+        <v>4307.0</v>
       </c>
       <c r="C38" t="n">
-        <v>1051.0</v>
+        <v>779.0</v>
       </c>
       <c r="D38" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1356.0</v>
+        <v>1073.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8229.0</v>
+        <v>6351.0</v>
       </c>
       <c r="B39" t="n">
-        <v>6616.0</v>
+        <v>5085.0</v>
       </c>
       <c r="C39" t="n">
-        <v>1146.0</v>
+        <v>952.0</v>
       </c>
       <c r="D39" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1587.0</v>
+        <v>1244.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9565.0</v>
+        <v>7351.0</v>
       </c>
       <c r="B40" t="n">
-        <v>7672.0</v>
+        <v>5899.0</v>
       </c>
       <c r="C40" t="n">
-        <v>1336.0</v>
+        <v>1000.0</v>
       </c>
       <c r="D40" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1865.0</v>
+        <v>1430.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11079.0</v>
+        <v>8503.0</v>
       </c>
       <c r="B41" t="n">
-        <v>8920.0</v>
+        <v>6833.0</v>
       </c>
       <c r="C41" t="n">
-        <v>1514.0</v>
+        <v>1152.0</v>
       </c>
       <c r="D41" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="E41" t="n">
-        <v>2130.0</v>
+        <v>1643.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12746.0</v>
+        <v>9795.0</v>
       </c>
       <c r="B42" t="n">
-        <v>10243.0</v>
+        <v>7892.0</v>
       </c>
       <c r="C42" t="n">
-        <v>1667.0</v>
+        <v>1292.0</v>
       </c>
       <c r="D42" t="n">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="E42" t="n">
-        <v>2467.0</v>
+        <v>1873.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14731.0</v>
+        <v>11266.0</v>
       </c>
       <c r="B43" t="n">
-        <v>11828.0</v>
+        <v>9054.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1985.0</v>
+        <v>1471.0</v>
       </c>
       <c r="D43" t="n">
-        <v>44.0</v>
+        <v>32.0</v>
       </c>
       <c r="E43" t="n">
-        <v>2859.0</v>
+        <v>2180.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16962.0</v>
+        <v>12956.0</v>
       </c>
       <c r="B44" t="n">
-        <v>13565.0</v>
+        <v>10383.0</v>
       </c>
       <c r="C44" t="n">
-        <v>2231.0</v>
+        <v>1690.0</v>
       </c>
       <c r="D44" t="n">
-        <v>49.0</v>
+        <v>40.0</v>
       </c>
       <c r="E44" t="n">
-        <v>3348.0</v>
+        <v>2533.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>19515.0</v>
+        <v>14976.0</v>
       </c>
       <c r="B45" t="n">
-        <v>15567.0</v>
+        <v>11962.0</v>
       </c>
       <c r="C45" t="n">
-        <v>2553.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D45" t="n">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
       <c r="E45" t="n">
-        <v>3894.0</v>
+        <v>2968.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22364.0</v>
+        <v>17219.0</v>
       </c>
       <c r="B46" t="n">
-        <v>17792.0</v>
+        <v>13708.0</v>
       </c>
       <c r="C46" t="n">
-        <v>2849.0</v>
+        <v>2243.0</v>
       </c>
       <c r="D46" t="n">
-        <v>66.0</v>
+        <v>52.0</v>
       </c>
       <c r="E46" t="n">
-        <v>4506.0</v>
+        <v>3459.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25600.0</v>
+        <v>19752.0</v>
       </c>
       <c r="B47" t="n">
-        <v>20274.0</v>
+        <v>15662.0</v>
       </c>
       <c r="C47" t="n">
-        <v>3236.0</v>
+        <v>2533.0</v>
       </c>
       <c r="D47" t="n">
-        <v>77.0</v>
+        <v>69.0</v>
       </c>
       <c r="E47" t="n">
-        <v>5249.0</v>
+        <v>4021.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>29219.0</v>
+        <v>22577.0</v>
       </c>
       <c r="B48" t="n">
-        <v>23039.0</v>
+        <v>17808.0</v>
       </c>
       <c r="C48" t="n">
-        <v>3619.0</v>
+        <v>2825.0</v>
       </c>
       <c r="D48" t="n">
-        <v>90.0</v>
+        <v>81.0</v>
       </c>
       <c r="E48" t="n">
-        <v>6090.0</v>
+        <v>4688.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>33080.0</v>
+        <v>25769.0</v>
       </c>
       <c r="B49" t="n">
-        <v>25882.0</v>
+        <v>20256.0</v>
       </c>
       <c r="C49" t="n">
-        <v>3861.0</v>
+        <v>3192.0</v>
       </c>
       <c r="D49" t="n">
-        <v>101.0</v>
+        <v>99.0</v>
       </c>
       <c r="E49" t="n">
-        <v>7097.0</v>
+        <v>5414.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>37244.0</v>
+        <v>29240.0</v>
       </c>
       <c r="B50" t="n">
-        <v>28852.0</v>
+        <v>22879.0</v>
       </c>
       <c r="C50" t="n">
-        <v>4164.0</v>
+        <v>3471.0</v>
       </c>
       <c r="D50" t="n">
-        <v>114.0</v>
+        <v>111.0</v>
       </c>
       <c r="E50" t="n">
-        <v>8278.0</v>
+        <v>6250.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>41921.0</v>
+        <v>33255.0</v>
       </c>
       <c r="B51" t="n">
-        <v>32199.0</v>
+        <v>25882.0</v>
       </c>
       <c r="C51" t="n">
-        <v>4677.0</v>
+        <v>4015.0</v>
       </c>
       <c r="D51" t="n">
-        <v>142.0</v>
+        <v>121.0</v>
       </c>
       <c r="E51" t="n">
-        <v>9580.0</v>
+        <v>7252.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>46947.0</v>
+        <v>37712.0</v>
       </c>
       <c r="B52" t="n">
-        <v>35714.0</v>
+        <v>29165.0</v>
       </c>
       <c r="C52" t="n">
-        <v>5026.0</v>
+        <v>4457.0</v>
       </c>
       <c r="D52" t="n">
-        <v>167.0</v>
+        <v>136.0</v>
       </c>
       <c r="E52" t="n">
-        <v>11066.0</v>
+        <v>8411.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52361.0</v>
+        <v>42642.0</v>
       </c>
       <c r="B53" t="n">
-        <v>39398.0</v>
+        <v>32775.0</v>
       </c>
       <c r="C53" t="n">
-        <v>5414.0</v>
+        <v>4930.0</v>
       </c>
       <c r="D53" t="n">
-        <v>195.0</v>
+        <v>157.0</v>
       </c>
       <c r="E53" t="n">
-        <v>12768.0</v>
+        <v>9710.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>58002.0</v>
+        <v>48072.0</v>
       </c>
       <c r="B54" t="n">
-        <v>43049.0</v>
+        <v>36682.0</v>
       </c>
       <c r="C54" t="n">
-        <v>5641.0</v>
+        <v>5430.0</v>
       </c>
       <c r="D54" t="n">
-        <v>231.0</v>
+        <v>187.0</v>
       </c>
       <c r="E54" t="n">
-        <v>14722.0</v>
+        <v>11203.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>63879.0</v>
+        <v>54027.0</v>
       </c>
       <c r="B55" t="n">
-        <v>46732.0</v>
+        <v>40922.0</v>
       </c>
       <c r="C55" t="n">
-        <v>5877.0</v>
+        <v>5955.0</v>
       </c>
       <c r="D55" t="n">
-        <v>263.0</v>
+        <v>207.0</v>
       </c>
       <c r="E55" t="n">
-        <v>16884.0</v>
+        <v>12898.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>69906.0</v>
+        <v>60236.0</v>
       </c>
       <c r="B56" t="n">
-        <v>50238.0</v>
+        <v>45253.0</v>
       </c>
       <c r="C56" t="n">
-        <v>6027.0</v>
+        <v>6209.0</v>
       </c>
       <c r="D56" t="n">
-        <v>304.0</v>
+        <v>240.0</v>
       </c>
       <c r="E56" t="n">
-        <v>19364.0</v>
+        <v>14743.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>76270.0</v>
+        <v>67059.0</v>
       </c>
       <c r="B57" t="n">
-        <v>53988.0</v>
+        <v>49899.0</v>
       </c>
       <c r="C57" t="n">
-        <v>6364.0</v>
+        <v>6823.0</v>
       </c>
       <c r="D57" t="n">
-        <v>351.0</v>
+        <v>282.0</v>
       </c>
       <c r="E57" t="n">
-        <v>21931.0</v>
+        <v>16878.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>82708.0</v>
+        <v>74727.0</v>
       </c>
       <c r="B58" t="n">
-        <v>57360.0</v>
+        <v>55124.0</v>
       </c>
       <c r="C58" t="n">
-        <v>6438.0</v>
+        <v>7668.0</v>
       </c>
       <c r="D58" t="n">
-        <v>394.0</v>
+        <v>322.0</v>
       </c>
       <c r="E58" t="n">
-        <v>24954.0</v>
+        <v>19281.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>89373.0</v>
+        <v>82935.0</v>
       </c>
       <c r="B59" t="n">
-        <v>60794.0</v>
+        <v>60616.0</v>
       </c>
       <c r="C59" t="n">
-        <v>6665.0</v>
+        <v>8208.0</v>
       </c>
       <c r="D59" t="n">
-        <v>451.0</v>
+        <v>367.0</v>
       </c>
       <c r="E59" t="n">
-        <v>28128.0</v>
+        <v>21952.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>96128.0</v>
+        <v>92085.0</v>
       </c>
       <c r="B60" t="n">
-        <v>63980.0</v>
+        <v>66642.0</v>
       </c>
       <c r="C60" t="n">
-        <v>6755.0</v>
+        <v>9150.0</v>
       </c>
       <c r="D60" t="n">
-        <v>511.0</v>
+        <v>419.0</v>
       </c>
       <c r="E60" t="n">
-        <v>31637.0</v>
+        <v>25024.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>103160.0</v>
+        <v>102094.0</v>
       </c>
       <c r="B61" t="n">
-        <v>67105.0</v>
+        <v>73170.0</v>
       </c>
       <c r="C61" t="n">
-        <v>7032.0</v>
+        <v>10009.0</v>
       </c>
       <c r="D61" t="n">
-        <v>585.0</v>
+        <v>479.0</v>
       </c>
       <c r="E61" t="n">
-        <v>35470.0</v>
+        <v>28445.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>110221.0</v>
+        <v>113183.0</v>
       </c>
       <c r="B62" t="n">
-        <v>70000.0</v>
+        <v>80584.0</v>
       </c>
       <c r="C62" t="n">
-        <v>7061.0</v>
+        <v>11089.0</v>
       </c>
       <c r="D62" t="n">
-        <v>666.0</v>
+        <v>525.0</v>
       </c>
       <c r="E62" t="n">
-        <v>39555.0</v>
+        <v>32074.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>117523.0</v>
+        <v>125309.0</v>
       </c>
       <c r="B63" t="n">
-        <v>72805.0</v>
+        <v>88522.0</v>
       </c>
       <c r="C63" t="n">
-        <v>7302.0</v>
+        <v>12126.0</v>
       </c>
       <c r="D63" t="n">
-        <v>742.0</v>
+        <v>604.0</v>
       </c>
       <c r="E63" t="n">
-        <v>43976.0</v>
+        <v>36183.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>124886.0</v>
+        <v>138840.0</v>
       </c>
       <c r="B64" t="n">
-        <v>75316.0</v>
+        <v>97360.0</v>
       </c>
       <c r="C64" t="n">
-        <v>7363.0</v>
+        <v>13531.0</v>
       </c>
       <c r="D64" t="n">
-        <v>823.0</v>
+        <v>687.0</v>
       </c>
       <c r="E64" t="n">
-        <v>48747.0</v>
+        <v>40793.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>132177.0</v>
+        <v>153582.0</v>
       </c>
       <c r="B65" t="n">
-        <v>77613.0</v>
+        <v>107064.0</v>
       </c>
       <c r="C65" t="n">
-        <v>7291.0</v>
+        <v>14742.0</v>
       </c>
       <c r="D65" t="n">
-        <v>920.0</v>
+        <v>775.0</v>
       </c>
       <c r="E65" t="n">
-        <v>53644.0</v>
+        <v>45743.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>139531.0</v>
+        <v>169890.0</v>
       </c>
       <c r="B66" t="n">
-        <v>79656.0</v>
+        <v>117798.0</v>
       </c>
       <c r="C66" t="n">
-        <v>7354.0</v>
+        <v>16308.0</v>
       </c>
       <c r="D66" t="n">
-        <v>1005.0</v>
+        <v>871.0</v>
       </c>
       <c r="E66" t="n">
-        <v>58870.0</v>
+        <v>51221.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>147027.0</v>
+        <v>187910.0</v>
       </c>
       <c r="B67" t="n">
-        <v>81499.0</v>
+        <v>129698.0</v>
       </c>
       <c r="C67" t="n">
-        <v>7496.0</v>
+        <v>18020.0</v>
       </c>
       <c r="D67" t="n">
-        <v>1129.0</v>
+        <v>968.0</v>
       </c>
       <c r="E67" t="n">
-        <v>64399.0</v>
+        <v>57244.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>154407.0</v>
+        <v>207463.0</v>
       </c>
       <c r="B68" t="n">
-        <v>82984.0</v>
+        <v>142458.0</v>
       </c>
       <c r="C68" t="n">
-        <v>7380.0</v>
+        <v>19553.0</v>
       </c>
       <c r="D68" t="n">
-        <v>1251.0</v>
+        <v>1072.0</v>
       </c>
       <c r="E68" t="n">
-        <v>70172.0</v>
+        <v>63933.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>161824.0</v>
+        <v>228632.0</v>
       </c>
       <c r="B69" t="n">
-        <v>84385.0</v>
+        <v>156246.0</v>
       </c>
       <c r="C69" t="n">
-        <v>7417.0</v>
+        <v>21169.0</v>
       </c>
       <c r="D69" t="n">
-        <v>1343.0</v>
+        <v>1196.0</v>
       </c>
       <c r="E69" t="n">
-        <v>76096.0</v>
+        <v>71190.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>169307.0</v>
+        <v>251247.0</v>
       </c>
       <c r="B70" t="n">
-        <v>85665.0</v>
+        <v>170748.0</v>
       </c>
       <c r="C70" t="n">
-        <v>7483.0</v>
+        <v>22615.0</v>
       </c>
       <c r="D70" t="n">
-        <v>1471.0</v>
+        <v>1320.0</v>
       </c>
       <c r="E70" t="n">
-        <v>82171.0</v>
+        <v>79179.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>176745.0</v>
+        <v>275073.0</v>
       </c>
       <c r="B71" t="n">
-        <v>86590.0</v>
+        <v>185754.0</v>
       </c>
       <c r="C71" t="n">
-        <v>7438.0</v>
+        <v>23826.0</v>
       </c>
       <c r="D71" t="n">
-        <v>1582.0</v>
+        <v>1446.0</v>
       </c>
       <c r="E71" t="n">
-        <v>88573.0</v>
+        <v>87873.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>184008.0</v>
+        <v>301328.0</v>
       </c>
       <c r="B72" t="n">
-        <v>87345.0</v>
+        <v>202200.0</v>
       </c>
       <c r="C72" t="n">
-        <v>7263.0</v>
+        <v>26255.0</v>
       </c>
       <c r="D72" t="n">
-        <v>1695.0</v>
+        <v>1622.0</v>
       </c>
       <c r="E72" t="n">
-        <v>94968.0</v>
+        <v>97506.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>191197.0</v>
+        <v>329381.0</v>
       </c>
       <c r="B73" t="n">
-        <v>87831.0</v>
+        <v>219464.0</v>
       </c>
       <c r="C73" t="n">
-        <v>7189.0</v>
+        <v>28053.0</v>
       </c>
       <c r="D73" t="n">
-        <v>1802.0</v>
+        <v>1783.0</v>
       </c>
       <c r="E73" t="n">
-        <v>101564.0</v>
+        <v>108134.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>198292.0</v>
+        <v>358398.0</v>
       </c>
       <c r="B74" t="n">
-        <v>88063.0</v>
+        <v>236828.0</v>
       </c>
       <c r="C74" t="n">
-        <v>7095.0</v>
+        <v>29017.0</v>
       </c>
       <c r="D74" t="n">
-        <v>1936.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E74" t="n">
-        <v>108293.0</v>
+        <v>119608.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>205245.0</v>
+        <v>389495.0</v>
       </c>
       <c r="B75" t="n">
-        <v>88251.0</v>
+        <v>254947.0</v>
       </c>
       <c r="C75" t="n">
-        <v>6953.0</v>
+        <v>31097.0</v>
       </c>
       <c r="D75" t="n">
-        <v>2073.0</v>
+        <v>2167.0</v>
       </c>
       <c r="E75" t="n">
-        <v>114921.0</v>
+        <v>132381.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>212011.0</v>
+        <v>421399.0</v>
       </c>
       <c r="B76" t="n">
-        <v>88087.0</v>
+        <v>272668.0</v>
       </c>
       <c r="C76" t="n">
-        <v>6766.0</v>
+        <v>31904.0</v>
       </c>
       <c r="D76" t="n">
-        <v>2197.0</v>
+        <v>2401.0</v>
       </c>
       <c r="E76" t="n">
-        <v>121727.0</v>
+        <v>146330.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>218613.0</v>
+        <v>454897.0</v>
       </c>
       <c r="B77" t="n">
-        <v>87716.0</v>
+        <v>290642.0</v>
       </c>
       <c r="C77" t="n">
-        <v>6602.0</v>
+        <v>33498.0</v>
       </c>
       <c r="D77" t="n">
-        <v>2334.0</v>
+        <v>2651.0</v>
       </c>
       <c r="E77" t="n">
-        <v>128563.0</v>
+        <v>161604.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>225077.0</v>
+        <v>489320.0</v>
       </c>
       <c r="B78" t="n">
-        <v>87118.0</v>
+        <v>308391.0</v>
       </c>
       <c r="C78" t="n">
-        <v>6464.0</v>
+        <v>34423.0</v>
       </c>
       <c r="D78" t="n">
-        <v>2467.0</v>
+        <v>2942.0</v>
       </c>
       <c r="E78" t="n">
-        <v>135492.0</v>
+        <v>177987.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>231294.0</v>
+        <v>524430.0</v>
       </c>
       <c r="B79" t="n">
-        <v>86096.0</v>
+        <v>325033.0</v>
       </c>
       <c r="C79" t="n">
-        <v>6217.0</v>
+        <v>35110.0</v>
       </c>
       <c r="D79" t="n">
-        <v>2578.0</v>
+        <v>3243.0</v>
       </c>
       <c r="E79" t="n">
-        <v>142620.0</v>
+        <v>196154.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>237502.0</v>
+        <v>560998.0</v>
       </c>
       <c r="B80" t="n">
-        <v>85076.0</v>
+        <v>341563.0</v>
       </c>
       <c r="C80" t="n">
-        <v>6208.0</v>
+        <v>36568.0</v>
       </c>
       <c r="D80" t="n">
-        <v>2713.0</v>
+        <v>3589.0</v>
       </c>
       <c r="E80" t="n">
-        <v>149713.0</v>
+        <v>215846.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>243636.0</v>
+        <v>597765.0</v>
       </c>
       <c r="B81" t="n">
-        <v>84006.0</v>
+        <v>356961.0</v>
       </c>
       <c r="C81" t="n">
-        <v>6134.0</v>
+        <v>36767.0</v>
       </c>
       <c r="D81" t="n">
-        <v>2841.0</v>
+        <v>3937.0</v>
       </c>
       <c r="E81" t="n">
-        <v>156789.0</v>
+        <v>236867.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>249759.0</v>
+        <v>634944.0</v>
       </c>
       <c r="B82" t="n">
-        <v>83002.0</v>
+        <v>371524.0</v>
       </c>
       <c r="C82" t="n">
-        <v>6123.0</v>
+        <v>37179.0</v>
       </c>
       <c r="D82" t="n">
-        <v>2972.0</v>
+        <v>4289.0</v>
       </c>
       <c r="E82" t="n">
-        <v>163785.0</v>
+        <v>259131.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>255721.0</v>
+        <v>672627.0</v>
       </c>
       <c r="B83" t="n">
-        <v>81926.0</v>
+        <v>385130.0</v>
       </c>
       <c r="C83" t="n">
-        <v>5962.0</v>
+        <v>37683.0</v>
       </c>
       <c r="D83" t="n">
-        <v>3090.0</v>
+        <v>4721.0</v>
       </c>
       <c r="E83" t="n">
-        <v>170705.0</v>
+        <v>282776.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>261311.0</v>
+        <v>710082.0</v>
       </c>
       <c r="B84" t="n">
-        <v>80597.0</v>
+        <v>397000.0</v>
       </c>
       <c r="C84" t="n">
-        <v>5590.0</v>
+        <v>37455.0</v>
       </c>
       <c r="D84" t="n">
-        <v>3234.0</v>
+        <v>5177.0</v>
       </c>
       <c r="E84" t="n">
-        <v>177480.0</v>
+        <v>307905.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>266843.0</v>
+        <v>747271.0</v>
       </c>
       <c r="B85" t="n">
-        <v>79053.0</v>
+        <v>407372.0</v>
       </c>
       <c r="C85" t="n">
-        <v>5532.0</v>
+        <v>37189.0</v>
       </c>
       <c r="D85" t="n">
-        <v>3364.0</v>
+        <v>5719.0</v>
       </c>
       <c r="E85" t="n">
-        <v>184426.0</v>
+        <v>334180.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>272179.0</v>
+        <v>783915.0</v>
       </c>
       <c r="B86" t="n">
-        <v>77538.0</v>
+        <v>415831.0</v>
       </c>
       <c r="C86" t="n">
-        <v>5336.0</v>
+        <v>36644.0</v>
       </c>
       <c r="D86" t="n">
-        <v>3466.0</v>
+        <v>6213.0</v>
       </c>
       <c r="E86" t="n">
-        <v>191175.0</v>
+        <v>361871.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>277325.0</v>
+        <v>820757.0</v>
       </c>
       <c r="B87" t="n">
-        <v>75950.0</v>
+        <v>423176.0</v>
       </c>
       <c r="C87" t="n">
-        <v>5146.0</v>
+        <v>36842.0</v>
       </c>
       <c r="D87" t="n">
-        <v>3590.0</v>
+        <v>6740.0</v>
       </c>
       <c r="E87" t="n">
-        <v>197785.0</v>
+        <v>390841.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>282471.0</v>
+        <v>856661.0</v>
       </c>
       <c r="B88" t="n">
-        <v>74500.0</v>
+        <v>428249.0</v>
       </c>
       <c r="C88" t="n">
-        <v>5146.0</v>
+        <v>35904.0</v>
       </c>
       <c r="D88" t="n">
-        <v>3694.0</v>
+        <v>7258.0</v>
       </c>
       <c r="E88" t="n">
-        <v>204277.0</v>
+        <v>421154.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>287600.0</v>
+        <v>891842.0</v>
       </c>
       <c r="B89" t="n">
-        <v>73027.0</v>
+        <v>431859.0</v>
       </c>
       <c r="C89" t="n">
-        <v>5129.0</v>
+        <v>35181.0</v>
       </c>
       <c r="D89" t="n">
-        <v>3811.0</v>
+        <v>7783.0</v>
       </c>
       <c r="E89" t="n">
-        <v>210762.0</v>
+        <v>452200.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>292334.0</v>
+        <v>926469.0</v>
       </c>
       <c r="B90" t="n">
-        <v>71312.0</v>
+        <v>433792.0</v>
       </c>
       <c r="C90" t="n">
-        <v>4734.0</v>
+        <v>34627.0</v>
       </c>
       <c r="D90" t="n">
-        <v>3920.0</v>
+        <v>8366.0</v>
       </c>
       <c r="E90" t="n">
-        <v>217102.0</v>
+        <v>484311.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>297031.0</v>
+        <v>959711.0</v>
       </c>
       <c r="B91" t="n">
-        <v>69609.0</v>
+        <v>433522.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4697.0</v>
+        <v>33242.0</v>
       </c>
       <c r="D91" t="n">
-        <v>4023.0</v>
+        <v>8978.0</v>
       </c>
       <c r="E91" t="n">
-        <v>223399.0</v>
+        <v>517211.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>301437.0</v>
+        <v>991729.0</v>
       </c>
       <c r="B92" t="n">
-        <v>67829.0</v>
+        <v>431244.0</v>
       </c>
       <c r="C92" t="n">
-        <v>4406.0</v>
+        <v>32018.0</v>
       </c>
       <c r="D92" t="n">
-        <v>4122.0</v>
+        <v>9597.0</v>
       </c>
       <c r="E92" t="n">
-        <v>229486.0</v>
+        <v>550888.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>305806.0</v>
+        <v>1022683.0</v>
       </c>
       <c r="B93" t="n">
-        <v>66125.0</v>
+        <v>427405.0</v>
       </c>
       <c r="C93" t="n">
-        <v>4369.0</v>
+        <v>30954.0</v>
       </c>
       <c r="D93" t="n">
-        <v>4217.0</v>
+        <v>10253.0</v>
       </c>
       <c r="E93" t="n">
-        <v>235464.0</v>
+        <v>585025.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>310112.0</v>
+        <v>1052306.0</v>
       </c>
       <c r="B94" t="n">
-        <v>64506.0</v>
+        <v>421460.0</v>
       </c>
       <c r="C94" t="n">
-        <v>4306.0</v>
+        <v>29623.0</v>
       </c>
       <c r="D94" t="n">
-        <v>4310.0</v>
+        <v>10914.0</v>
       </c>
       <c r="E94" t="n">
-        <v>241296.0</v>
+        <v>619932.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>314208.0</v>
+        <v>1080569.0</v>
       </c>
       <c r="B95" t="n">
-        <v>62769.0</v>
+        <v>414351.0</v>
       </c>
       <c r="C95" t="n">
-        <v>4096.0</v>
+        <v>28263.0</v>
       </c>
       <c r="D95" t="n">
-        <v>4414.0</v>
+        <v>11569.0</v>
       </c>
       <c r="E95" t="n">
-        <v>247025.0</v>
+        <v>654649.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>318323.0</v>
+        <v>1107559.0</v>
       </c>
       <c r="B96" t="n">
-        <v>61101.0</v>
+        <v>405885.0</v>
       </c>
       <c r="C96" t="n">
-        <v>4115.0</v>
+        <v>26990.0</v>
       </c>
       <c r="D96" t="n">
-        <v>4503.0</v>
+        <v>12213.0</v>
       </c>
       <c r="E96" t="n">
-        <v>252719.0</v>
+        <v>689461.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>322109.0</v>
+        <v>1132967.0</v>
       </c>
       <c r="B97" t="n">
-        <v>59361.0</v>
+        <v>395732.0</v>
       </c>
       <c r="C97" t="n">
-        <v>3786.0</v>
+        <v>25408.0</v>
       </c>
       <c r="D97" t="n">
-        <v>4595.0</v>
+        <v>12852.0</v>
       </c>
       <c r="E97" t="n">
-        <v>258153.0</v>
+        <v>724383.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>325795.0</v>
+        <v>1156439.0</v>
       </c>
       <c r="B98" t="n">
-        <v>57579.0</v>
+        <v>384374.0</v>
       </c>
       <c r="C98" t="n">
-        <v>3686.0</v>
+        <v>23472.0</v>
       </c>
       <c r="D98" t="n">
-        <v>4680.0</v>
+        <v>13502.0</v>
       </c>
       <c r="E98" t="n">
-        <v>263536.0</v>
+        <v>758563.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>329324.0</v>
+        <v>1178454.0</v>
       </c>
       <c r="B99" t="n">
-        <v>55700.0</v>
+        <v>371228.0</v>
       </c>
       <c r="C99" t="n">
-        <v>3529.0</v>
+        <v>22015.0</v>
       </c>
       <c r="D99" t="n">
-        <v>4786.0</v>
+        <v>14159.0</v>
       </c>
       <c r="E99" t="n">
-        <v>268838.0</v>
+        <v>793067.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>332785.0</v>
+        <v>1198862.0</v>
       </c>
       <c r="B100" t="n">
-        <v>54197.0</v>
+        <v>357712.0</v>
       </c>
       <c r="C100" t="n">
-        <v>3461.0</v>
+        <v>20408.0</v>
       </c>
       <c r="D100" t="n">
-        <v>4868.0</v>
+        <v>14788.0</v>
       </c>
       <c r="E100" t="n">
-        <v>273720.0</v>
+        <v>826362.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>336128.0</v>
+        <v>1217703.0</v>
       </c>
       <c r="B101" t="n">
-        <v>52576.0</v>
+        <v>343254.0</v>
       </c>
       <c r="C101" t="n">
-        <v>3343.0</v>
+        <v>18841.0</v>
       </c>
       <c r="D101" t="n">
-        <v>4944.0</v>
+        <v>15371.0</v>
       </c>
       <c r="E101" t="n">
-        <v>278608.0</v>
+        <v>859078.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>339317.0</v>
+        <v>1235351.0</v>
       </c>
       <c r="B102" t="n">
-        <v>50963.0</v>
+        <v>328314.0</v>
       </c>
       <c r="C102" t="n">
-        <v>3189.0</v>
+        <v>17648.0</v>
       </c>
       <c r="D102" t="n">
-        <v>5026.0</v>
+        <v>15966.0</v>
       </c>
       <c r="E102" t="n">
-        <v>283328.0</v>
+        <v>891071.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>342356.0</v>
+        <v>1251647.0</v>
       </c>
       <c r="B103" t="n">
-        <v>49280.0</v>
+        <v>312660.0</v>
       </c>
       <c r="C103" t="n">
-        <v>3039.0</v>
+        <v>16296.0</v>
       </c>
       <c r="D103" t="n">
-        <v>5094.0</v>
+        <v>16542.0</v>
       </c>
       <c r="E103" t="n">
-        <v>287982.0</v>
+        <v>922445.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>345246.0</v>
+        <v>1266913.0</v>
       </c>
       <c r="B104" t="n">
-        <v>47606.0</v>
+        <v>297006.0</v>
       </c>
       <c r="C104" t="n">
-        <v>2890.0</v>
+        <v>15266.0</v>
       </c>
       <c r="D104" t="n">
-        <v>5167.0</v>
+        <v>17064.0</v>
       </c>
       <c r="E104" t="n">
-        <v>292473.0</v>
+        <v>952843.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>348028.0</v>
+        <v>1280740.0</v>
       </c>
       <c r="B105" t="n">
-        <v>45812.0</v>
+        <v>281366.0</v>
       </c>
       <c r="C105" t="n">
-        <v>2782.0</v>
+        <v>13827.0</v>
       </c>
       <c r="D105" t="n">
-        <v>5248.0</v>
+        <v>17545.0</v>
       </c>
       <c r="E105" t="n">
-        <v>296968.0</v>
+        <v>981829.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>350800.0</v>
+        <v>1293477.0</v>
       </c>
       <c r="B106" t="n">
-        <v>44358.0</v>
+        <v>265663.0</v>
       </c>
       <c r="C106" t="n">
-        <v>2772.0</v>
+        <v>12737.0</v>
       </c>
       <c r="D106" t="n">
-        <v>5311.0</v>
+        <v>18034.0</v>
       </c>
       <c r="E106" t="n">
-        <v>301131.0</v>
+        <v>1009780.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>353557.0</v>
+        <v>1304920.0</v>
       </c>
       <c r="B107" t="n">
-        <v>42963.0</v>
+        <v>249804.0</v>
       </c>
       <c r="C107" t="n">
-        <v>2757.0</v>
+        <v>11443.0</v>
       </c>
       <c r="D107" t="n">
-        <v>5373.0</v>
+        <v>18512.0</v>
       </c>
       <c r="E107" t="n">
-        <v>305221.0</v>
+        <v>1036604.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>356097.0</v>
+        <v>1315541.0</v>
       </c>
       <c r="B108" t="n">
-        <v>41524.0</v>
+        <v>234450.0</v>
       </c>
       <c r="C108" t="n">
-        <v>2540.0</v>
+        <v>10621.0</v>
       </c>
       <c r="D108" t="n">
-        <v>5437.0</v>
+        <v>18997.0</v>
       </c>
       <c r="E108" t="n">
-        <v>309136.0</v>
+        <v>1062094.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>358642.0</v>
+        <v>1325352.0</v>
       </c>
       <c r="B109" t="n">
-        <v>40199.0</v>
+        <v>219703.0</v>
       </c>
       <c r="C109" t="n">
-        <v>2545.0</v>
+        <v>9811.0</v>
       </c>
       <c r="D109" t="n">
-        <v>5496.0</v>
+        <v>19421.0</v>
       </c>
       <c r="E109" t="n">
-        <v>312947.0</v>
+        <v>1086228.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results1.xlsx
+++ b/src/output/results1.xlsx
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,10 +397,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -414,10 +414,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -431,10 +431,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="B8" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="C8" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -482,13 +482,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="B9" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>38.0</v>
+        <v>28.0</v>
       </c>
       <c r="B10" t="n">
-        <v>38.0</v>
+        <v>28.0</v>
       </c>
       <c r="C10" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -516,1175 +516,1175 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56.0</v>
+        <v>39.0</v>
       </c>
       <c r="B11" t="n">
-        <v>55.0</v>
+        <v>39.0</v>
       </c>
       <c r="C11" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
       <c r="B12" t="n">
-        <v>66.0</v>
+        <v>48.0</v>
       </c>
       <c r="C12" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>86.0</v>
+        <v>57.0</v>
       </c>
       <c r="B13" t="n">
-        <v>83.0</v>
+        <v>57.0</v>
       </c>
       <c r="C13" t="n">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>102.0</v>
+        <v>70.0</v>
       </c>
       <c r="B14" t="n">
-        <v>98.0</v>
+        <v>70.0</v>
       </c>
       <c r="C14" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>115.0</v>
+        <v>88.0</v>
       </c>
       <c r="B15" t="n">
-        <v>107.0</v>
+        <v>85.0</v>
       </c>
       <c r="C15" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>141.0</v>
+        <v>103.0</v>
       </c>
       <c r="B16" t="n">
-        <v>129.0</v>
+        <v>97.0</v>
       </c>
       <c r="C16" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>189.0</v>
+        <v>127.0</v>
       </c>
       <c r="B17" t="n">
-        <v>173.0</v>
+        <v>116.0</v>
       </c>
       <c r="C17" t="n">
-        <v>48.0</v>
+        <v>24.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>229.0</v>
+        <v>141.0</v>
       </c>
       <c r="B18" t="n">
-        <v>205.0</v>
+        <v>125.0</v>
       </c>
       <c r="C18" t="n">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>274.0</v>
+        <v>173.0</v>
       </c>
       <c r="B19" t="n">
-        <v>244.0</v>
+        <v>150.0</v>
       </c>
       <c r="C19" t="n">
-        <v>45.0</v>
+        <v>32.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>343.0</v>
+        <v>200.0</v>
       </c>
       <c r="B20" t="n">
-        <v>307.0</v>
+        <v>173.0</v>
       </c>
       <c r="C20" t="n">
-        <v>69.0</v>
+        <v>27.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>422.0</v>
+        <v>234.0</v>
       </c>
       <c r="B21" t="n">
-        <v>378.0</v>
+        <v>200.0</v>
       </c>
       <c r="C21" t="n">
-        <v>79.0</v>
+        <v>34.0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>42.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>496.0</v>
+        <v>278.0</v>
       </c>
       <c r="B22" t="n">
-        <v>446.0</v>
+        <v>238.0</v>
       </c>
       <c r="C22" t="n">
-        <v>74.0</v>
+        <v>44.0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>591.0</v>
+        <v>322.0</v>
       </c>
       <c r="B23" t="n">
-        <v>523.0</v>
+        <v>277.0</v>
       </c>
       <c r="C23" t="n">
-        <v>95.0</v>
+        <v>44.0</v>
       </c>
       <c r="D23" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>65.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>701.0</v>
+        <v>361.0</v>
       </c>
       <c r="B24" t="n">
-        <v>605.0</v>
+        <v>308.0</v>
       </c>
       <c r="C24" t="n">
-        <v>110.0</v>
+        <v>39.0</v>
       </c>
       <c r="D24" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>93.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>820.0</v>
+        <v>401.0</v>
       </c>
       <c r="B25" t="n">
-        <v>697.0</v>
+        <v>337.0</v>
       </c>
       <c r="C25" t="n">
-        <v>119.0</v>
+        <v>40.0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" t="n">
-        <v>120.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>942.0</v>
+        <v>450.0</v>
       </c>
       <c r="B26" t="n">
-        <v>789.0</v>
+        <v>371.0</v>
       </c>
       <c r="C26" t="n">
-        <v>122.0</v>
+        <v>49.0</v>
       </c>
       <c r="D26" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>150.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1089.0</v>
+        <v>512.0</v>
       </c>
       <c r="B27" t="n">
-        <v>902.0</v>
+        <v>422.0</v>
       </c>
       <c r="C27" t="n">
-        <v>147.0</v>
+        <v>62.0</v>
       </c>
       <c r="D27" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E27" t="n">
-        <v>184.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1263.0</v>
+        <v>576.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1048.0</v>
+        <v>457.0</v>
       </c>
       <c r="C28" t="n">
-        <v>174.0</v>
+        <v>64.0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E28" t="n">
-        <v>212.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1425.0</v>
+        <v>645.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1164.0</v>
+        <v>505.0</v>
       </c>
       <c r="C29" t="n">
-        <v>162.0</v>
+        <v>69.0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E29" t="n">
-        <v>258.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1642.0</v>
+        <v>705.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1336.0</v>
+        <v>542.0</v>
       </c>
       <c r="C30" t="n">
-        <v>217.0</v>
+        <v>60.0</v>
       </c>
       <c r="D30" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E30" t="n">
-        <v>303.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1886.0</v>
+        <v>792.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1521.0</v>
+        <v>600.0</v>
       </c>
       <c r="C31" t="n">
-        <v>244.0</v>
+        <v>87.0</v>
       </c>
       <c r="D31" t="n">
         <v>3.0</v>
       </c>
       <c r="E31" t="n">
-        <v>362.0</v>
+        <v>189.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2188.0</v>
+        <v>894.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1746.0</v>
+        <v>669.0</v>
       </c>
       <c r="C32" t="n">
-        <v>302.0</v>
+        <v>102.0</v>
       </c>
       <c r="D32" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E32" t="n">
-        <v>438.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2526.0</v>
+        <v>1003.0</v>
       </c>
       <c r="B33" t="n">
-        <v>2007.0</v>
+        <v>737.0</v>
       </c>
       <c r="C33" t="n">
-        <v>338.0</v>
+        <v>109.0</v>
       </c>
       <c r="D33" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E33" t="n">
-        <v>511.0</v>
+        <v>262.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2959.0</v>
+        <v>1137.0</v>
       </c>
       <c r="B34" t="n">
-        <v>2351.0</v>
+        <v>838.0</v>
       </c>
       <c r="C34" t="n">
-        <v>433.0</v>
+        <v>134.0</v>
       </c>
       <c r="D34" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="E34" t="n">
-        <v>596.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3411.0</v>
+        <v>1292.0</v>
       </c>
       <c r="B35" t="n">
-        <v>2710.0</v>
+        <v>953.0</v>
       </c>
       <c r="C35" t="n">
-        <v>452.0</v>
+        <v>155.0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="E35" t="n">
-        <v>685.0</v>
+        <v>334.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3970.0</v>
+        <v>1467.0</v>
       </c>
       <c r="B36" t="n">
-        <v>3149.0</v>
+        <v>1091.0</v>
       </c>
       <c r="C36" t="n">
-        <v>559.0</v>
+        <v>175.0</v>
       </c>
       <c r="D36" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="E36" t="n">
-        <v>804.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4620.0</v>
+        <v>1687.0</v>
       </c>
       <c r="B37" t="n">
-        <v>3665.0</v>
+        <v>1258.0</v>
       </c>
       <c r="C37" t="n">
-        <v>650.0</v>
+        <v>220.0</v>
       </c>
       <c r="D37" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="E37" t="n">
-        <v>937.0</v>
+        <v>422.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5399.0</v>
+        <v>1963.0</v>
       </c>
       <c r="B38" t="n">
-        <v>4307.0</v>
+        <v>1483.0</v>
       </c>
       <c r="C38" t="n">
-        <v>779.0</v>
+        <v>276.0</v>
       </c>
       <c r="D38" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1073.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6351.0</v>
+        <v>2275.0</v>
       </c>
       <c r="B39" t="n">
-        <v>5085.0</v>
+        <v>1736.0</v>
       </c>
       <c r="C39" t="n">
-        <v>952.0</v>
+        <v>312.0</v>
       </c>
       <c r="D39" t="n">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1244.0</v>
+        <v>529.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7351.0</v>
+        <v>2618.0</v>
       </c>
       <c r="B40" t="n">
-        <v>5899.0</v>
+        <v>2014.0</v>
       </c>
       <c r="C40" t="n">
-        <v>1000.0</v>
+        <v>343.0</v>
       </c>
       <c r="D40" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1430.0</v>
+        <v>593.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8503.0</v>
+        <v>3056.0</v>
       </c>
       <c r="B41" t="n">
-        <v>6833.0</v>
+        <v>2357.0</v>
       </c>
       <c r="C41" t="n">
-        <v>1152.0</v>
+        <v>438.0</v>
       </c>
       <c r="D41" t="n">
-        <v>27.0</v>
+        <v>11.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1643.0</v>
+        <v>688.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9795.0</v>
+        <v>3557.0</v>
       </c>
       <c r="B42" t="n">
-        <v>7892.0</v>
+        <v>2768.0</v>
       </c>
       <c r="C42" t="n">
-        <v>1292.0</v>
+        <v>501.0</v>
       </c>
       <c r="D42" t="n">
-        <v>30.0</v>
+        <v>13.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1873.0</v>
+        <v>776.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11266.0</v>
+        <v>4127.0</v>
       </c>
       <c r="B43" t="n">
-        <v>9054.0</v>
+        <v>3234.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1471.0</v>
+        <v>570.0</v>
       </c>
       <c r="D43" t="n">
-        <v>32.0</v>
+        <v>15.0</v>
       </c>
       <c r="E43" t="n">
-        <v>2180.0</v>
+        <v>878.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12956.0</v>
+        <v>4785.0</v>
       </c>
       <c r="B44" t="n">
-        <v>10383.0</v>
+        <v>3779.0</v>
       </c>
       <c r="C44" t="n">
-        <v>1690.0</v>
+        <v>658.0</v>
       </c>
       <c r="D44" t="n">
-        <v>40.0</v>
+        <v>15.0</v>
       </c>
       <c r="E44" t="n">
-        <v>2533.0</v>
+        <v>991.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14976.0</v>
+        <v>5531.0</v>
       </c>
       <c r="B45" t="n">
-        <v>11962.0</v>
+        <v>4389.0</v>
       </c>
       <c r="C45" t="n">
-        <v>2020.0</v>
+        <v>746.0</v>
       </c>
       <c r="D45" t="n">
-        <v>46.0</v>
+        <v>15.0</v>
       </c>
       <c r="E45" t="n">
-        <v>2968.0</v>
+        <v>1127.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>17219.0</v>
+        <v>6494.0</v>
       </c>
       <c r="B46" t="n">
-        <v>13708.0</v>
+        <v>5192.0</v>
       </c>
       <c r="C46" t="n">
-        <v>2243.0</v>
+        <v>963.0</v>
       </c>
       <c r="D46" t="n">
-        <v>52.0</v>
+        <v>17.0</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.0</v>
+        <v>1285.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>19752.0</v>
+        <v>7601.0</v>
       </c>
       <c r="B47" t="n">
-        <v>15662.0</v>
+        <v>6120.0</v>
       </c>
       <c r="C47" t="n">
-        <v>2533.0</v>
+        <v>1107.0</v>
       </c>
       <c r="D47" t="n">
-        <v>69.0</v>
+        <v>20.0</v>
       </c>
       <c r="E47" t="n">
-        <v>4021.0</v>
+        <v>1461.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22577.0</v>
+        <v>8816.0</v>
       </c>
       <c r="B48" t="n">
-        <v>17808.0</v>
+        <v>7106.0</v>
       </c>
       <c r="C48" t="n">
-        <v>2825.0</v>
+        <v>1215.0</v>
       </c>
       <c r="D48" t="n">
-        <v>81.0</v>
+        <v>21.0</v>
       </c>
       <c r="E48" t="n">
-        <v>4688.0</v>
+        <v>1689.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25769.0</v>
+        <v>10236.0</v>
       </c>
       <c r="B49" t="n">
-        <v>20256.0</v>
+        <v>8279.0</v>
       </c>
       <c r="C49" t="n">
-        <v>3192.0</v>
+        <v>1420.0</v>
       </c>
       <c r="D49" t="n">
-        <v>99.0</v>
+        <v>25.0</v>
       </c>
       <c r="E49" t="n">
-        <v>5414.0</v>
+        <v>1932.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>29240.0</v>
+        <v>11842.0</v>
       </c>
       <c r="B50" t="n">
-        <v>22879.0</v>
+        <v>9552.0</v>
       </c>
       <c r="C50" t="n">
-        <v>3471.0</v>
+        <v>1606.0</v>
       </c>
       <c r="D50" t="n">
-        <v>111.0</v>
+        <v>28.0</v>
       </c>
       <c r="E50" t="n">
-        <v>6250.0</v>
+        <v>2262.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>33255.0</v>
+        <v>13664.0</v>
       </c>
       <c r="B51" t="n">
-        <v>25882.0</v>
+        <v>10987.0</v>
       </c>
       <c r="C51" t="n">
-        <v>4015.0</v>
+        <v>1822.0</v>
       </c>
       <c r="D51" t="n">
-        <v>121.0</v>
+        <v>30.0</v>
       </c>
       <c r="E51" t="n">
-        <v>7252.0</v>
+        <v>2647.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>37712.0</v>
+        <v>15703.0</v>
       </c>
       <c r="B52" t="n">
-        <v>29165.0</v>
+        <v>12633.0</v>
       </c>
       <c r="C52" t="n">
-        <v>4457.0</v>
+        <v>2039.0</v>
       </c>
       <c r="D52" t="n">
-        <v>136.0</v>
+        <v>35.0</v>
       </c>
       <c r="E52" t="n">
-        <v>8411.0</v>
+        <v>3035.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>42642.0</v>
+        <v>17947.0</v>
       </c>
       <c r="B53" t="n">
-        <v>32775.0</v>
+        <v>14314.0</v>
       </c>
       <c r="C53" t="n">
-        <v>4930.0</v>
+        <v>2244.0</v>
       </c>
       <c r="D53" t="n">
-        <v>157.0</v>
+        <v>40.0</v>
       </c>
       <c r="E53" t="n">
-        <v>9710.0</v>
+        <v>3593.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>48072.0</v>
+        <v>20503.0</v>
       </c>
       <c r="B54" t="n">
-        <v>36682.0</v>
+        <v>16253.0</v>
       </c>
       <c r="C54" t="n">
-        <v>5430.0</v>
+        <v>2556.0</v>
       </c>
       <c r="D54" t="n">
-        <v>187.0</v>
+        <v>50.0</v>
       </c>
       <c r="E54" t="n">
-        <v>11203.0</v>
+        <v>4200.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54027.0</v>
+        <v>23281.0</v>
       </c>
       <c r="B55" t="n">
-        <v>40922.0</v>
+        <v>18366.0</v>
       </c>
       <c r="C55" t="n">
-        <v>5955.0</v>
+        <v>2778.0</v>
       </c>
       <c r="D55" t="n">
-        <v>207.0</v>
+        <v>62.0</v>
       </c>
       <c r="E55" t="n">
-        <v>12898.0</v>
+        <v>4853.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>60236.0</v>
+        <v>26316.0</v>
       </c>
       <c r="B56" t="n">
-        <v>45253.0</v>
+        <v>20591.0</v>
       </c>
       <c r="C56" t="n">
-        <v>6209.0</v>
+        <v>3035.0</v>
       </c>
       <c r="D56" t="n">
-        <v>240.0</v>
+        <v>73.0</v>
       </c>
       <c r="E56" t="n">
-        <v>14743.0</v>
+        <v>5652.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67059.0</v>
+        <v>29590.0</v>
       </c>
       <c r="B57" t="n">
-        <v>49899.0</v>
+        <v>22935.0</v>
       </c>
       <c r="C57" t="n">
-        <v>6823.0</v>
+        <v>3274.0</v>
       </c>
       <c r="D57" t="n">
-        <v>282.0</v>
+        <v>83.0</v>
       </c>
       <c r="E57" t="n">
-        <v>16878.0</v>
+        <v>6572.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>74727.0</v>
+        <v>33176.0</v>
       </c>
       <c r="B58" t="n">
-        <v>55124.0</v>
+        <v>25485.0</v>
       </c>
       <c r="C58" t="n">
-        <v>7668.0</v>
+        <v>3586.0</v>
       </c>
       <c r="D58" t="n">
-        <v>322.0</v>
+        <v>105.0</v>
       </c>
       <c r="E58" t="n">
-        <v>19281.0</v>
+        <v>7586.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>82935.0</v>
+        <v>37149.0</v>
       </c>
       <c r="B59" t="n">
-        <v>60616.0</v>
+        <v>28255.0</v>
       </c>
       <c r="C59" t="n">
-        <v>8208.0</v>
+        <v>3973.0</v>
       </c>
       <c r="D59" t="n">
-        <v>367.0</v>
+        <v>131.0</v>
       </c>
       <c r="E59" t="n">
-        <v>21952.0</v>
+        <v>8763.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>92085.0</v>
+        <v>41456.0</v>
       </c>
       <c r="B60" t="n">
-        <v>66642.0</v>
+        <v>31205.0</v>
       </c>
       <c r="C60" t="n">
-        <v>9150.0</v>
+        <v>4307.0</v>
       </c>
       <c r="D60" t="n">
-        <v>419.0</v>
+        <v>148.0</v>
       </c>
       <c r="E60" t="n">
-        <v>25024.0</v>
+        <v>10103.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>102094.0</v>
+        <v>46261.0</v>
       </c>
       <c r="B61" t="n">
-        <v>73170.0</v>
+        <v>34503.0</v>
       </c>
       <c r="C61" t="n">
-        <v>10009.0</v>
+        <v>4805.0</v>
       </c>
       <c r="D61" t="n">
-        <v>479.0</v>
+        <v>176.0</v>
       </c>
       <c r="E61" t="n">
-        <v>28445.0</v>
+        <v>11582.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>113183.0</v>
+        <v>51377.0</v>
       </c>
       <c r="B62" t="n">
-        <v>80584.0</v>
+        <v>37858.0</v>
       </c>
       <c r="C62" t="n">
-        <v>11089.0</v>
+        <v>5116.0</v>
       </c>
       <c r="D62" t="n">
-        <v>525.0</v>
+        <v>200.0</v>
       </c>
       <c r="E62" t="n">
-        <v>32074.0</v>
+        <v>13319.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>125309.0</v>
+        <v>57110.0</v>
       </c>
       <c r="B63" t="n">
-        <v>88522.0</v>
+        <v>41659.0</v>
       </c>
       <c r="C63" t="n">
-        <v>12126.0</v>
+        <v>5733.0</v>
       </c>
       <c r="D63" t="n">
-        <v>604.0</v>
+        <v>237.0</v>
       </c>
       <c r="E63" t="n">
-        <v>36183.0</v>
+        <v>15214.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>138840.0</v>
+        <v>63493.0</v>
       </c>
       <c r="B64" t="n">
-        <v>97360.0</v>
+        <v>45988.0</v>
       </c>
       <c r="C64" t="n">
-        <v>13531.0</v>
+        <v>6383.0</v>
       </c>
       <c r="D64" t="n">
-        <v>687.0</v>
+        <v>271.0</v>
       </c>
       <c r="E64" t="n">
-        <v>40793.0</v>
+        <v>17234.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>153582.0</v>
+        <v>70675.0</v>
       </c>
       <c r="B65" t="n">
-        <v>107064.0</v>
+        <v>50867.0</v>
       </c>
       <c r="C65" t="n">
-        <v>14742.0</v>
+        <v>7182.0</v>
       </c>
       <c r="D65" t="n">
-        <v>775.0</v>
+        <v>311.0</v>
       </c>
       <c r="E65" t="n">
-        <v>45743.0</v>
+        <v>19497.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>169890.0</v>
+        <v>78542.0</v>
       </c>
       <c r="B66" t="n">
-        <v>117798.0</v>
+        <v>56128.0</v>
       </c>
       <c r="C66" t="n">
-        <v>16308.0</v>
+        <v>7867.0</v>
       </c>
       <c r="D66" t="n">
-        <v>871.0</v>
+        <v>349.0</v>
       </c>
       <c r="E66" t="n">
-        <v>51221.0</v>
+        <v>22065.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>187910.0</v>
+        <v>87196.0</v>
       </c>
       <c r="B67" t="n">
-        <v>129698.0</v>
+        <v>61897.0</v>
       </c>
       <c r="C67" t="n">
-        <v>18020.0</v>
+        <v>8654.0</v>
       </c>
       <c r="D67" t="n">
-        <v>968.0</v>
+        <v>402.0</v>
       </c>
       <c r="E67" t="n">
-        <v>57244.0</v>
+        <v>24897.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>207463.0</v>
+        <v>96987.0</v>
       </c>
       <c r="B68" t="n">
-        <v>142458.0</v>
+        <v>68527.0</v>
       </c>
       <c r="C68" t="n">
-        <v>19553.0</v>
+        <v>9791.0</v>
       </c>
       <c r="D68" t="n">
-        <v>1072.0</v>
+        <v>455.0</v>
       </c>
       <c r="E68" t="n">
-        <v>63933.0</v>
+        <v>28005.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>228632.0</v>
+        <v>107590.0</v>
       </c>
       <c r="B69" t="n">
-        <v>156246.0</v>
+        <v>75649.0</v>
       </c>
       <c r="C69" t="n">
-        <v>21169.0</v>
+        <v>10603.0</v>
       </c>
       <c r="D69" t="n">
-        <v>1196.0</v>
+        <v>508.0</v>
       </c>
       <c r="E69" t="n">
-        <v>71190.0</v>
+        <v>31433.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251247.0</v>
+        <v>119293.0</v>
       </c>
       <c r="B70" t="n">
-        <v>170748.0</v>
+        <v>83502.0</v>
       </c>
       <c r="C70" t="n">
-        <v>22615.0</v>
+        <v>11703.0</v>
       </c>
       <c r="D70" t="n">
-        <v>1320.0</v>
+        <v>558.0</v>
       </c>
       <c r="E70" t="n">
-        <v>79179.0</v>
+        <v>35233.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>275073.0</v>
+        <v>132251.0</v>
       </c>
       <c r="B71" t="n">
-        <v>185754.0</v>
+        <v>92249.0</v>
       </c>
       <c r="C71" t="n">
-        <v>23826.0</v>
+        <v>12958.0</v>
       </c>
       <c r="D71" t="n">
-        <v>1446.0</v>
+        <v>612.0</v>
       </c>
       <c r="E71" t="n">
-        <v>87873.0</v>
+        <v>39390.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>301328.0</v>
+        <v>146373.0</v>
       </c>
       <c r="B72" t="n">
-        <v>202200.0</v>
+        <v>101738.0</v>
       </c>
       <c r="C72" t="n">
-        <v>26255.0</v>
+        <v>14122.0</v>
       </c>
       <c r="D72" t="n">
-        <v>1622.0</v>
+        <v>682.0</v>
       </c>
       <c r="E72" t="n">
-        <v>97506.0</v>
+        <v>43953.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>329381.0</v>
+        <v>161857.0</v>
       </c>
       <c r="B73" t="n">
-        <v>219464.0</v>
+        <v>112107.0</v>
       </c>
       <c r="C73" t="n">
-        <v>28053.0</v>
+        <v>15484.0</v>
       </c>
       <c r="D73" t="n">
-        <v>1783.0</v>
+        <v>750.0</v>
       </c>
       <c r="E73" t="n">
-        <v>108134.0</v>
+        <v>49000.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>358398.0</v>
+        <v>178515.0</v>
       </c>
       <c r="B74" t="n">
-        <v>236828.0</v>
+        <v>123071.0</v>
       </c>
       <c r="C74" t="n">
-        <v>29017.0</v>
+        <v>16658.0</v>
       </c>
       <c r="D74" t="n">
-        <v>1962.0</v>
+        <v>847.0</v>
       </c>
       <c r="E74" t="n">
-        <v>119608.0</v>
+        <v>54597.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>389495.0</v>
+        <v>196737.0</v>
       </c>
       <c r="B75" t="n">
-        <v>254947.0</v>
+        <v>135009.0</v>
       </c>
       <c r="C75" t="n">
-        <v>31097.0</v>
+        <v>18222.0</v>
       </c>
       <c r="D75" t="n">
-        <v>2167.0</v>
+        <v>962.0</v>
       </c>
       <c r="E75" t="n">
-        <v>132381.0</v>
+        <v>60766.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>421399.0</v>
+        <v>216209.0</v>
       </c>
       <c r="B76" t="n">
-        <v>272668.0</v>
+        <v>147503.0</v>
       </c>
       <c r="C76" t="n">
-        <v>31904.0</v>
+        <v>19472.0</v>
       </c>
       <c r="D76" t="n">
-        <v>2401.0</v>
+        <v>1071.0</v>
       </c>
       <c r="E76" t="n">
-        <v>146330.0</v>
+        <v>67635.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>454897.0</v>
+        <v>236939.0</v>
       </c>
       <c r="B77" t="n">
-        <v>290642.0</v>
+        <v>160517.0</v>
       </c>
       <c r="C77" t="n">
-        <v>33498.0</v>
+        <v>20730.0</v>
       </c>
       <c r="D77" t="n">
-        <v>2651.0</v>
+        <v>1193.0</v>
       </c>
       <c r="E77" t="n">
-        <v>161604.0</v>
+        <v>75229.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>489320.0</v>
+        <v>259321.0</v>
       </c>
       <c r="B78" t="n">
-        <v>308391.0</v>
+        <v>174501.0</v>
       </c>
       <c r="C78" t="n">
-        <v>34423.0</v>
+        <v>22382.0</v>
       </c>
       <c r="D78" t="n">
-        <v>2942.0</v>
+        <v>1320.0</v>
       </c>
       <c r="E78" t="n">
-        <v>177987.0</v>
+        <v>83500.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>524430.0</v>
+        <v>282810.0</v>
       </c>
       <c r="B79" t="n">
-        <v>325033.0</v>
+        <v>188597.0</v>
       </c>
       <c r="C79" t="n">
-        <v>35110.0</v>
+        <v>23489.0</v>
       </c>
       <c r="D79" t="n">
-        <v>3243.0</v>
+        <v>1476.0</v>
       </c>
       <c r="E79" t="n">
-        <v>196154.0</v>
+        <v>92737.0</v>
       </c>
     </row>
     <row r="80">

--- a/src/output/results1.xlsx
+++ b/src/output/results1.xlsx
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,10 +414,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B6" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -471,7 +471,7 @@
         <v>11.0</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -482,13 +482,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="B9" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28.0</v>
+        <v>17.0</v>
       </c>
       <c r="B10" t="n">
-        <v>28.0</v>
+        <v>17.0</v>
       </c>
       <c r="C10" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -516,10 +516,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39.0</v>
+        <v>28.0</v>
       </c>
       <c r="B11" t="n">
-        <v>39.0</v>
+        <v>28.0</v>
       </c>
       <c r="C11" t="n">
         <v>11.0</v>
@@ -533,44 +533,44 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="B12" t="n">
-        <v>48.0</v>
+        <v>43.0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="B13" t="n">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
       <c r="C13" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="B14" t="n">
-        <v>70.0</v>
+        <v>67.0</v>
       </c>
       <c r="C14" t="n">
         <v>13.0</v>
@@ -579,32 +579,32 @@
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>88.0</v>
+        <v>82.0</v>
       </c>
       <c r="B15" t="n">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="C15" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>103.0</v>
+        <v>97.0</v>
       </c>
       <c r="B16" t="n">
-        <v>97.0</v>
+        <v>94.0</v>
       </c>
       <c r="C16" t="n">
         <v>15.0</v>
@@ -613,789 +613,789 @@
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>127.0</v>
+        <v>113.0</v>
       </c>
       <c r="B17" t="n">
-        <v>116.0</v>
+        <v>106.0</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>141.0</v>
+        <v>133.0</v>
       </c>
       <c r="B18" t="n">
-        <v>125.0</v>
+        <v>121.0</v>
       </c>
       <c r="C18" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>173.0</v>
+        <v>159.0</v>
       </c>
       <c r="B19" t="n">
-        <v>150.0</v>
+        <v>142.0</v>
       </c>
       <c r="C19" t="n">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>200.0</v>
+        <v>182.0</v>
       </c>
       <c r="B20" t="n">
-        <v>173.0</v>
+        <v>163.0</v>
       </c>
       <c r="C20" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>234.0</v>
+        <v>205.0</v>
       </c>
       <c r="B21" t="n">
-        <v>200.0</v>
+        <v>179.0</v>
       </c>
       <c r="C21" t="n">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>278.0</v>
+        <v>236.0</v>
       </c>
       <c r="B22" t="n">
-        <v>238.0</v>
+        <v>202.0</v>
       </c>
       <c r="C22" t="n">
-        <v>44.0</v>
+        <v>31.0</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
       </c>
       <c r="E22" t="n">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>322.0</v>
+        <v>255.0</v>
       </c>
       <c r="B23" t="n">
-        <v>277.0</v>
+        <v>214.0</v>
       </c>
       <c r="C23" t="n">
-        <v>44.0</v>
+        <v>19.0</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>361.0</v>
+        <v>285.0</v>
       </c>
       <c r="B24" t="n">
-        <v>308.0</v>
+        <v>237.0</v>
       </c>
       <c r="C24" t="n">
-        <v>39.0</v>
+        <v>30.0</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>53.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>401.0</v>
+        <v>326.0</v>
       </c>
       <c r="B25" t="n">
-        <v>337.0</v>
+        <v>262.0</v>
       </c>
       <c r="C25" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E25" t="n">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>450.0</v>
+        <v>357.0</v>
       </c>
       <c r="B26" t="n">
-        <v>371.0</v>
+        <v>279.0</v>
       </c>
       <c r="C26" t="n">
-        <v>49.0</v>
+        <v>31.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E26" t="n">
-        <v>79.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>512.0</v>
+        <v>393.0</v>
       </c>
       <c r="B27" t="n">
-        <v>422.0</v>
+        <v>296.0</v>
       </c>
       <c r="C27" t="n">
-        <v>62.0</v>
+        <v>36.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E27" t="n">
-        <v>89.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>576.0</v>
+        <v>437.0</v>
       </c>
       <c r="B28" t="n">
-        <v>457.0</v>
+        <v>319.0</v>
       </c>
       <c r="C28" t="n">
-        <v>64.0</v>
+        <v>44.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E28" t="n">
-        <v>118.0</v>
+        <v>114.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>645.0</v>
+        <v>478.0</v>
       </c>
       <c r="B29" t="n">
-        <v>505.0</v>
+        <v>342.0</v>
       </c>
       <c r="C29" t="n">
-        <v>69.0</v>
+        <v>41.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E29" t="n">
-        <v>139.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>705.0</v>
+        <v>525.0</v>
       </c>
       <c r="B30" t="n">
-        <v>542.0</v>
+        <v>373.0</v>
       </c>
       <c r="C30" t="n">
-        <v>60.0</v>
+        <v>47.0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E30" t="n">
-        <v>161.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>792.0</v>
+        <v>568.0</v>
       </c>
       <c r="B31" t="n">
-        <v>600.0</v>
+        <v>394.0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.0</v>
+        <v>43.0</v>
       </c>
       <c r="D31" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E31" t="n">
-        <v>189.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>894.0</v>
+        <v>633.0</v>
       </c>
       <c r="B32" t="n">
-        <v>669.0</v>
+        <v>436.0</v>
       </c>
       <c r="C32" t="n">
-        <v>102.0</v>
+        <v>65.0</v>
       </c>
       <c r="D32" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E32" t="n">
-        <v>222.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1003.0</v>
+        <v>694.0</v>
       </c>
       <c r="B33" t="n">
-        <v>737.0</v>
+        <v>476.0</v>
       </c>
       <c r="C33" t="n">
-        <v>109.0</v>
+        <v>61.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E33" t="n">
-        <v>262.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1137.0</v>
+        <v>754.0</v>
       </c>
       <c r="B34" t="n">
-        <v>838.0</v>
+        <v>512.0</v>
       </c>
       <c r="C34" t="n">
-        <v>134.0</v>
+        <v>60.0</v>
       </c>
       <c r="D34" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E34" t="n">
-        <v>295.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1292.0</v>
+        <v>828.0</v>
       </c>
       <c r="B35" t="n">
-        <v>953.0</v>
+        <v>555.0</v>
       </c>
       <c r="C35" t="n">
-        <v>155.0</v>
+        <v>74.0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E35" t="n">
-        <v>334.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1467.0</v>
+        <v>905.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1091.0</v>
+        <v>605.0</v>
       </c>
       <c r="C36" t="n">
-        <v>175.0</v>
+        <v>77.0</v>
       </c>
       <c r="D36" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E36" t="n">
-        <v>370.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1687.0</v>
+        <v>991.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1258.0</v>
+        <v>659.0</v>
       </c>
       <c r="C37" t="n">
-        <v>220.0</v>
+        <v>86.0</v>
       </c>
       <c r="D37" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E37" t="n">
-        <v>422.0</v>
+        <v>324.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1963.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1483.0</v>
+        <v>714.0</v>
       </c>
       <c r="C38" t="n">
-        <v>276.0</v>
+        <v>89.0</v>
       </c>
       <c r="D38" t="n">
         <v>8.0</v>
       </c>
       <c r="E38" t="n">
-        <v>472.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2275.0</v>
+        <v>1193.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1736.0</v>
+        <v>791.0</v>
       </c>
       <c r="C39" t="n">
-        <v>312.0</v>
+        <v>113.0</v>
       </c>
       <c r="D39" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E39" t="n">
-        <v>529.0</v>
+        <v>394.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2618.0</v>
+        <v>1327.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2014.0</v>
+        <v>879.0</v>
       </c>
       <c r="C40" t="n">
-        <v>343.0</v>
+        <v>134.0</v>
       </c>
       <c r="D40" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="E40" t="n">
-        <v>593.0</v>
+        <v>440.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3056.0</v>
+        <v>1474.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2357.0</v>
+        <v>978.0</v>
       </c>
       <c r="C41" t="n">
-        <v>438.0</v>
+        <v>147.0</v>
       </c>
       <c r="D41" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="E41" t="n">
-        <v>688.0</v>
+        <v>488.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3557.0</v>
+        <v>1620.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2768.0</v>
+        <v>1069.0</v>
       </c>
       <c r="C42" t="n">
-        <v>501.0</v>
+        <v>146.0</v>
       </c>
       <c r="D42" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="E42" t="n">
-        <v>776.0</v>
+        <v>543.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4127.0</v>
+        <v>1787.0</v>
       </c>
       <c r="B43" t="n">
-        <v>3234.0</v>
+        <v>1181.0</v>
       </c>
       <c r="C43" t="n">
-        <v>570.0</v>
+        <v>167.0</v>
       </c>
       <c r="D43" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="E43" t="n">
-        <v>878.0</v>
+        <v>595.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4785.0</v>
+        <v>1959.0</v>
       </c>
       <c r="B44" t="n">
-        <v>3779.0</v>
+        <v>1301.0</v>
       </c>
       <c r="C44" t="n">
-        <v>658.0</v>
+        <v>172.0</v>
       </c>
       <c r="D44" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="E44" t="n">
-        <v>991.0</v>
+        <v>646.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5531.0</v>
+        <v>2154.0</v>
       </c>
       <c r="B45" t="n">
-        <v>4389.0</v>
+        <v>1424.0</v>
       </c>
       <c r="C45" t="n">
-        <v>746.0</v>
+        <v>195.0</v>
       </c>
       <c r="D45" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1127.0</v>
+        <v>718.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6494.0</v>
+        <v>2350.0</v>
       </c>
       <c r="B46" t="n">
-        <v>5192.0</v>
+        <v>1549.0</v>
       </c>
       <c r="C46" t="n">
-        <v>963.0</v>
+        <v>196.0</v>
       </c>
       <c r="D46" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1285.0</v>
+        <v>786.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7601.0</v>
+        <v>2576.0</v>
       </c>
       <c r="B47" t="n">
-        <v>6120.0</v>
+        <v>1688.0</v>
       </c>
       <c r="C47" t="n">
-        <v>1107.0</v>
+        <v>226.0</v>
       </c>
       <c r="D47" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1461.0</v>
+        <v>873.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8816.0</v>
+        <v>2823.0</v>
       </c>
       <c r="B48" t="n">
-        <v>7106.0</v>
+        <v>1852.0</v>
       </c>
       <c r="C48" t="n">
-        <v>1215.0</v>
+        <v>247.0</v>
       </c>
       <c r="D48" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1689.0</v>
+        <v>952.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10236.0</v>
+        <v>3096.0</v>
       </c>
       <c r="B49" t="n">
-        <v>8279.0</v>
+        <v>2016.0</v>
       </c>
       <c r="C49" t="n">
-        <v>1420.0</v>
+        <v>273.0</v>
       </c>
       <c r="D49" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1932.0</v>
+        <v>1060.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11842.0</v>
+        <v>3411.0</v>
       </c>
       <c r="B50" t="n">
-        <v>9552.0</v>
+        <v>2233.0</v>
       </c>
       <c r="C50" t="n">
-        <v>1606.0</v>
+        <v>315.0</v>
       </c>
       <c r="D50" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2262.0</v>
+        <v>1153.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13664.0</v>
+        <v>3738.0</v>
       </c>
       <c r="B51" t="n">
-        <v>10987.0</v>
+        <v>2436.0</v>
       </c>
       <c r="C51" t="n">
-        <v>1822.0</v>
+        <v>327.0</v>
       </c>
       <c r="D51" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="E51" t="n">
-        <v>2647.0</v>
+        <v>1275.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>15703.0</v>
+        <v>4053.0</v>
       </c>
       <c r="B52" t="n">
-        <v>12633.0</v>
+        <v>2614.0</v>
       </c>
       <c r="C52" t="n">
-        <v>2039.0</v>
+        <v>315.0</v>
       </c>
       <c r="D52" t="n">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
       <c r="E52" t="n">
-        <v>3035.0</v>
+        <v>1412.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>17947.0</v>
+        <v>4436.0</v>
       </c>
       <c r="B53" t="n">
-        <v>14314.0</v>
+        <v>2851.0</v>
       </c>
       <c r="C53" t="n">
-        <v>2244.0</v>
+        <v>383.0</v>
       </c>
       <c r="D53" t="n">
-        <v>40.0</v>
+        <v>28.0</v>
       </c>
       <c r="E53" t="n">
-        <v>3593.0</v>
+        <v>1557.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20503.0</v>
+        <v>4874.0</v>
       </c>
       <c r="B54" t="n">
-        <v>16253.0</v>
+        <v>3144.0</v>
       </c>
       <c r="C54" t="n">
-        <v>2556.0</v>
+        <v>438.0</v>
       </c>
       <c r="D54" t="n">
-        <v>50.0</v>
+        <v>31.0</v>
       </c>
       <c r="E54" t="n">
-        <v>4200.0</v>
+        <v>1699.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>23281.0</v>
+        <v>5324.0</v>
       </c>
       <c r="B55" t="n">
-        <v>18366.0</v>
+        <v>3415.0</v>
       </c>
       <c r="C55" t="n">
-        <v>2778.0</v>
+        <v>450.0</v>
       </c>
       <c r="D55" t="n">
-        <v>62.0</v>
+        <v>33.0</v>
       </c>
       <c r="E55" t="n">
-        <v>4853.0</v>
+        <v>1876.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>26316.0</v>
+        <v>5717.0</v>
       </c>
       <c r="B56" t="n">
-        <v>20591.0</v>
+        <v>3637.0</v>
       </c>
       <c r="C56" t="n">
-        <v>3035.0</v>
+        <v>393.0</v>
       </c>
       <c r="D56" t="n">
-        <v>73.0</v>
+        <v>33.0</v>
       </c>
       <c r="E56" t="n">
-        <v>5652.0</v>
+        <v>2047.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>29590.0</v>
+        <v>6194.0</v>
       </c>
       <c r="B57" t="n">
-        <v>22935.0</v>
+        <v>3897.0</v>
       </c>
       <c r="C57" t="n">
-        <v>3274.0</v>
+        <v>477.0</v>
       </c>
       <c r="D57" t="n">
-        <v>83.0</v>
+        <v>36.0</v>
       </c>
       <c r="E57" t="n">
-        <v>6572.0</v>
+        <v>2261.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>33176.0</v>
+        <v>6743.0</v>
       </c>
       <c r="B58" t="n">
-        <v>25485.0</v>
+        <v>4223.0</v>
       </c>
       <c r="C58" t="n">
-        <v>3586.0</v>
+        <v>549.0</v>
       </c>
       <c r="D58" t="n">
-        <v>105.0</v>
+        <v>39.0</v>
       </c>
       <c r="E58" t="n">
-        <v>7586.0</v>
+        <v>2481.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>37149.0</v>
+        <v>7285.0</v>
       </c>
       <c r="B59" t="n">
-        <v>28255.0</v>
+        <v>4503.0</v>
       </c>
       <c r="C59" t="n">
-        <v>3973.0</v>
+        <v>542.0</v>
       </c>
       <c r="D59" t="n">
-        <v>131.0</v>
+        <v>43.0</v>
       </c>
       <c r="E59" t="n">
-        <v>8763.0</v>
+        <v>2739.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>41456.0</v>
+        <v>7864.0</v>
       </c>
       <c r="B60" t="n">
-        <v>31205.0</v>
+        <v>4828.0</v>
       </c>
       <c r="C60" t="n">
-        <v>4307.0</v>
+        <v>579.0</v>
       </c>
       <c r="D60" t="n">
-        <v>148.0</v>
+        <v>48.0</v>
       </c>
       <c r="E60" t="n">
-        <v>10103.0</v>
+        <v>2988.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>46261.0</v>
+        <v>8473.0</v>
       </c>
       <c r="B61" t="n">
-        <v>34503.0</v>
+        <v>5169.0</v>
       </c>
       <c r="C61" t="n">
-        <v>4805.0</v>
+        <v>609.0</v>
       </c>
       <c r="D61" t="n">
-        <v>176.0</v>
+        <v>52.0</v>
       </c>
       <c r="E61" t="n">
-        <v>11582.0</v>
+        <v>3252.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>51377.0</v>
+        <v>9115.0</v>
       </c>
       <c r="B62" t="n">
-        <v>37858.0</v>
+        <v>5506.0</v>
       </c>
       <c r="C62" t="n">
-        <v>5116.0</v>
+        <v>642.0</v>
       </c>
       <c r="D62" t="n">
-        <v>200.0</v>
+        <v>57.0</v>
       </c>
       <c r="E62" t="n">
-        <v>13319.0</v>
+        <v>3552.0</v>
       </c>
     </row>
     <row r="63">

--- a/src/output/results1.xlsx
+++ b/src/output/results1.xlsx
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>86.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>86.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0</v>
+        <v>95.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>95.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.0</v>
+        <v>104.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>104.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>5.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.0</v>
+        <v>121.0</v>
       </c>
       <c r="B7" t="n">
-        <v>8.0</v>
+        <v>121.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.0</v>
+        <v>134.0</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0</v>
+        <v>134.0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -482,13 +482,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17.0</v>
+        <v>152.0</v>
       </c>
       <c r="B9" t="n">
-        <v>17.0</v>
+        <v>152.0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -499,903 +499,903 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26.0</v>
+        <v>160.0</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0</v>
+        <v>159.0</v>
       </c>
       <c r="C10" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29.0</v>
+        <v>170.0</v>
       </c>
       <c r="B11" t="n">
-        <v>29.0</v>
+        <v>168.0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>38.0</v>
+        <v>180.0</v>
       </c>
       <c r="B12" t="n">
-        <v>38.0</v>
+        <v>176.0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>53.0</v>
+        <v>199.0</v>
       </c>
       <c r="B13" t="n">
-        <v>53.0</v>
+        <v>193.0</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65.0</v>
+        <v>210.0</v>
       </c>
       <c r="B14" t="n">
-        <v>65.0</v>
+        <v>203.0</v>
       </c>
       <c r="C14" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>82.0</v>
+        <v>228.0</v>
       </c>
       <c r="B15" t="n">
-        <v>81.0</v>
+        <v>217.0</v>
       </c>
       <c r="C15" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106.0</v>
+        <v>247.0</v>
       </c>
       <c r="B16" t="n">
-        <v>105.0</v>
+        <v>230.0</v>
       </c>
       <c r="C16" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>128.0</v>
+        <v>281.0</v>
       </c>
       <c r="B17" t="n">
-        <v>123.0</v>
+        <v>257.0</v>
       </c>
       <c r="C17" t="n">
-        <v>22.0</v>
+        <v>34.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>156.0</v>
+        <v>310.0</v>
       </c>
       <c r="B18" t="n">
-        <v>148.0</v>
+        <v>274.0</v>
       </c>
       <c r="C18" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" t="n">
-        <v>8.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>181.0</v>
+        <v>346.0</v>
       </c>
       <c r="B19" t="n">
-        <v>167.0</v>
+        <v>303.0</v>
       </c>
       <c r="C19" t="n">
-        <v>25.0</v>
+        <v>36.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E19" t="n">
-        <v>14.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>209.0</v>
+        <v>383.0</v>
       </c>
       <c r="B20" t="n">
-        <v>186.0</v>
+        <v>332.0</v>
       </c>
       <c r="C20" t="n">
-        <v>28.0</v>
+        <v>37.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E20" t="n">
-        <v>23.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>253.0</v>
+        <v>408.0</v>
       </c>
       <c r="B21" t="n">
-        <v>222.0</v>
+        <v>347.0</v>
       </c>
       <c r="C21" t="n">
-        <v>44.0</v>
+        <v>25.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E21" t="n">
-        <v>30.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>296.0</v>
+        <v>443.0</v>
       </c>
       <c r="B22" t="n">
-        <v>259.0</v>
+        <v>373.0</v>
       </c>
       <c r="C22" t="n">
-        <v>43.0</v>
+        <v>35.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E22" t="n">
-        <v>36.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>331.0</v>
+        <v>485.0</v>
       </c>
       <c r="B23" t="n">
-        <v>288.0</v>
+        <v>403.0</v>
       </c>
       <c r="C23" t="n">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" t="n">
-        <v>42.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>396.0</v>
+        <v>543.0</v>
       </c>
       <c r="B24" t="n">
-        <v>343.0</v>
+        <v>439.0</v>
       </c>
       <c r="C24" t="n">
-        <v>65.0</v>
+        <v>58.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E24" t="n">
-        <v>52.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>451.0</v>
+        <v>593.0</v>
       </c>
       <c r="B25" t="n">
-        <v>382.0</v>
+        <v>477.0</v>
       </c>
       <c r="C25" t="n">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E25" t="n">
-        <v>68.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>525.0</v>
+        <v>646.0</v>
       </c>
       <c r="B26" t="n">
-        <v>438.0</v>
+        <v>512.0</v>
       </c>
       <c r="C26" t="n">
-        <v>74.0</v>
+        <v>53.0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>85.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>606.0</v>
+        <v>698.0</v>
       </c>
       <c r="B27" t="n">
-        <v>496.0</v>
+        <v>538.0</v>
       </c>
       <c r="C27" t="n">
-        <v>81.0</v>
+        <v>52.0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E27" t="n">
-        <v>108.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>693.0</v>
+        <v>766.0</v>
       </c>
       <c r="B28" t="n">
-        <v>565.0</v>
+        <v>587.0</v>
       </c>
       <c r="C28" t="n">
-        <v>87.0</v>
+        <v>68.0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E28" t="n">
-        <v>126.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>784.0</v>
+        <v>815.0</v>
       </c>
       <c r="B29" t="n">
-        <v>627.0</v>
+        <v>608.0</v>
       </c>
       <c r="C29" t="n">
-        <v>91.0</v>
+        <v>49.0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E29" t="n">
-        <v>155.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>870.0</v>
+        <v>878.0</v>
       </c>
       <c r="B30" t="n">
-        <v>695.0</v>
+        <v>648.0</v>
       </c>
       <c r="C30" t="n">
-        <v>86.0</v>
+        <v>63.0</v>
       </c>
       <c r="D30" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E30" t="n">
-        <v>172.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1011.0</v>
+        <v>941.0</v>
       </c>
       <c r="B31" t="n">
-        <v>799.0</v>
+        <v>684.0</v>
       </c>
       <c r="C31" t="n">
-        <v>141.0</v>
+        <v>63.0</v>
       </c>
       <c r="D31" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E31" t="n">
-        <v>209.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1164.0</v>
+        <v>1015.0</v>
       </c>
       <c r="B32" t="n">
-        <v>915.0</v>
+        <v>729.0</v>
       </c>
       <c r="C32" t="n">
-        <v>153.0</v>
+        <v>74.0</v>
       </c>
       <c r="D32" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E32" t="n">
-        <v>245.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1326.0</v>
+        <v>1084.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1037.0</v>
+        <v>768.0</v>
       </c>
       <c r="C33" t="n">
-        <v>162.0</v>
+        <v>69.0</v>
       </c>
       <c r="D33" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E33" t="n">
-        <v>283.0</v>
+        <v>308.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1506.0</v>
+        <v>1158.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1164.0</v>
+        <v>810.0</v>
       </c>
       <c r="C34" t="n">
-        <v>180.0</v>
+        <v>74.0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E34" t="n">
-        <v>336.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1691.0</v>
+        <v>1244.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1298.0</v>
+        <v>856.0</v>
       </c>
       <c r="C35" t="n">
-        <v>185.0</v>
+        <v>86.0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E35" t="n">
-        <v>386.0</v>
+        <v>380.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1925.0</v>
+        <v>1343.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1460.0</v>
+        <v>897.0</v>
       </c>
       <c r="C36" t="n">
-        <v>234.0</v>
+        <v>99.0</v>
       </c>
       <c r="D36" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="E36" t="n">
-        <v>458.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2163.0</v>
+        <v>1451.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1639.0</v>
+        <v>972.0</v>
       </c>
       <c r="C37" t="n">
-        <v>238.0</v>
+        <v>108.0</v>
       </c>
       <c r="D37" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E37" t="n">
-        <v>516.0</v>
+        <v>469.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2423.0</v>
+        <v>1561.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1820.0</v>
+        <v>1032.0</v>
       </c>
       <c r="C38" t="n">
-        <v>260.0</v>
+        <v>110.0</v>
       </c>
       <c r="D38" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="E38" t="n">
-        <v>594.0</v>
+        <v>516.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2730.0</v>
+        <v>1711.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2040.0</v>
+        <v>1125.0</v>
       </c>
       <c r="C39" t="n">
-        <v>307.0</v>
+        <v>150.0</v>
       </c>
       <c r="D39" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="E39" t="n">
-        <v>680.0</v>
+        <v>572.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3084.0</v>
+        <v>1851.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2290.0</v>
+        <v>1217.0</v>
       </c>
       <c r="C40" t="n">
-        <v>354.0</v>
+        <v>140.0</v>
       </c>
       <c r="D40" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="E40" t="n">
-        <v>781.0</v>
+        <v>619.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3489.0</v>
+        <v>2033.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2587.0</v>
+        <v>1332.0</v>
       </c>
       <c r="C41" t="n">
-        <v>405.0</v>
+        <v>182.0</v>
       </c>
       <c r="D41" t="n">
         <v>17.0</v>
       </c>
       <c r="E41" t="n">
-        <v>885.0</v>
+        <v>684.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3943.0</v>
+        <v>2227.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2928.0</v>
+        <v>1466.0</v>
       </c>
       <c r="C42" t="n">
-        <v>454.0</v>
+        <v>194.0</v>
       </c>
       <c r="D42" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="E42" t="n">
-        <v>997.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4406.0</v>
+        <v>2408.0</v>
       </c>
       <c r="B43" t="n">
-        <v>3257.0</v>
+        <v>1570.0</v>
       </c>
       <c r="C43" t="n">
-        <v>463.0</v>
+        <v>181.0</v>
       </c>
       <c r="D43" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1128.0</v>
+        <v>819.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4928.0</v>
+        <v>2635.0</v>
       </c>
       <c r="B44" t="n">
-        <v>3627.0</v>
+        <v>1737.0</v>
       </c>
       <c r="C44" t="n">
-        <v>522.0</v>
+        <v>227.0</v>
       </c>
       <c r="D44" t="n">
         <v>21.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1280.0</v>
+        <v>877.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5539.0</v>
+        <v>2915.0</v>
       </c>
       <c r="B45" t="n">
-        <v>4061.0</v>
+        <v>1935.0</v>
       </c>
       <c r="C45" t="n">
-        <v>611.0</v>
+        <v>280.0</v>
       </c>
       <c r="D45" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1455.0</v>
+        <v>959.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6218.0</v>
+        <v>3165.0</v>
       </c>
       <c r="B46" t="n">
-        <v>4527.0</v>
+        <v>2098.0</v>
       </c>
       <c r="C46" t="n">
-        <v>679.0</v>
+        <v>250.0</v>
       </c>
       <c r="D46" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1666.0</v>
+        <v>1044.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6975.0</v>
+        <v>3488.0</v>
       </c>
       <c r="B47" t="n">
-        <v>5072.0</v>
+        <v>2333.0</v>
       </c>
       <c r="C47" t="n">
-        <v>757.0</v>
+        <v>323.0</v>
       </c>
       <c r="D47" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1876.0</v>
+        <v>1129.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7808.0</v>
+        <v>3821.0</v>
       </c>
       <c r="B48" t="n">
-        <v>5692.0</v>
+        <v>2573.0</v>
       </c>
       <c r="C48" t="n">
-        <v>833.0</v>
+        <v>333.0</v>
       </c>
       <c r="D48" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2085.0</v>
+        <v>1221.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8677.0</v>
+        <v>4187.0</v>
       </c>
       <c r="B49" t="n">
-        <v>6293.0</v>
+        <v>2847.0</v>
       </c>
       <c r="C49" t="n">
-        <v>869.0</v>
+        <v>366.0</v>
       </c>
       <c r="D49" t="n">
-        <v>33.0</v>
+        <v>28.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2351.0</v>
+        <v>1312.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9797.0</v>
+        <v>4601.0</v>
       </c>
       <c r="B50" t="n">
-        <v>7084.0</v>
+        <v>3131.0</v>
       </c>
       <c r="C50" t="n">
-        <v>1120.0</v>
+        <v>414.0</v>
       </c>
       <c r="D50" t="n">
-        <v>38.0</v>
+        <v>28.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2675.0</v>
+        <v>1442.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10992.0</v>
+        <v>5050.0</v>
       </c>
       <c r="B51" t="n">
-        <v>7916.0</v>
+        <v>3439.0</v>
       </c>
       <c r="C51" t="n">
-        <v>1195.0</v>
+        <v>449.0</v>
       </c>
       <c r="D51" t="n">
-        <v>47.0</v>
+        <v>34.0</v>
       </c>
       <c r="E51" t="n">
-        <v>3029.0</v>
+        <v>1577.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12331.0</v>
+        <v>5589.0</v>
       </c>
       <c r="B52" t="n">
-        <v>8842.0</v>
+        <v>3833.0</v>
       </c>
       <c r="C52" t="n">
-        <v>1339.0</v>
+        <v>539.0</v>
       </c>
       <c r="D52" t="n">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
       <c r="E52" t="n">
-        <v>3435.0</v>
+        <v>1720.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13748.0</v>
+        <v>6160.0</v>
       </c>
       <c r="B53" t="n">
-        <v>9841.0</v>
+        <v>4240.0</v>
       </c>
       <c r="C53" t="n">
-        <v>1417.0</v>
+        <v>571.0</v>
       </c>
       <c r="D53" t="n">
-        <v>56.0</v>
+        <v>38.0</v>
       </c>
       <c r="E53" t="n">
-        <v>3851.0</v>
+        <v>1882.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>15210.0</v>
+        <v>6736.0</v>
       </c>
       <c r="B54" t="n">
-        <v>10813.0</v>
+        <v>4631.0</v>
       </c>
       <c r="C54" t="n">
-        <v>1462.0</v>
+        <v>576.0</v>
       </c>
       <c r="D54" t="n">
-        <v>65.0</v>
+        <v>43.0</v>
       </c>
       <c r="E54" t="n">
-        <v>4332.0</v>
+        <v>2062.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>16846.0</v>
+        <v>7335.0</v>
       </c>
       <c r="B55" t="n">
-        <v>11950.0</v>
+        <v>5025.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1636.0</v>
+        <v>599.0</v>
       </c>
       <c r="D55" t="n">
-        <v>72.0</v>
+        <v>49.0</v>
       </c>
       <c r="E55" t="n">
-        <v>4824.0</v>
+        <v>2261.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>18668.0</v>
+        <v>7962.0</v>
       </c>
       <c r="B56" t="n">
-        <v>13231.0</v>
+        <v>5435.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1822.0</v>
+        <v>627.0</v>
       </c>
       <c r="D56" t="n">
-        <v>84.0</v>
+        <v>52.0</v>
       </c>
       <c r="E56" t="n">
-        <v>5353.0</v>
+        <v>2475.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20575.0</v>
+        <v>8623.0</v>
       </c>
       <c r="B57" t="n">
-        <v>14465.0</v>
+        <v>5868.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1907.0</v>
+        <v>661.0</v>
       </c>
       <c r="D57" t="n">
-        <v>89.0</v>
+        <v>56.0</v>
       </c>
       <c r="E57" t="n">
-        <v>6021.0</v>
+        <v>2699.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22679.0</v>
+        <v>9340.0</v>
       </c>
       <c r="B58" t="n">
-        <v>15831.0</v>
+        <v>6334.0</v>
       </c>
       <c r="C58" t="n">
-        <v>2104.0</v>
+        <v>717.0</v>
       </c>
       <c r="D58" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="E58" t="n">
-        <v>6748.0</v>
+        <v>2946.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>24988.0</v>
+        <v>10088.0</v>
       </c>
       <c r="B59" t="n">
-        <v>17314.0</v>
+        <v>6771.0</v>
       </c>
       <c r="C59" t="n">
-        <v>2309.0</v>
+        <v>748.0</v>
       </c>
       <c r="D59" t="n">
-        <v>113.0</v>
+        <v>67.0</v>
       </c>
       <c r="E59" t="n">
-        <v>7561.0</v>
+        <v>3250.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>27357.0</v>
+        <v>10869.0</v>
       </c>
       <c r="B60" t="n">
-        <v>18773.0</v>
+        <v>7236.0</v>
       </c>
       <c r="C60" t="n">
-        <v>2369.0</v>
+        <v>781.0</v>
       </c>
       <c r="D60" t="n">
-        <v>124.0</v>
+        <v>73.0</v>
       </c>
       <c r="E60" t="n">
-        <v>8460.0</v>
+        <v>3560.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30004.0</v>
+        <v>11737.0</v>
       </c>
       <c r="B61" t="n">
-        <v>20453.0</v>
+        <v>7722.0</v>
       </c>
       <c r="C61" t="n">
-        <v>2647.0</v>
+        <v>868.0</v>
       </c>
       <c r="D61" t="n">
-        <v>138.0</v>
+        <v>83.0</v>
       </c>
       <c r="E61" t="n">
-        <v>9413.0</v>
+        <v>3932.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>32865.0</v>
+        <v>12669.0</v>
       </c>
       <c r="B62" t="n">
-        <v>22143.0</v>
+        <v>8258.0</v>
       </c>
       <c r="C62" t="n">
-        <v>2861.0</v>
+        <v>932.0</v>
       </c>
       <c r="D62" t="n">
-        <v>153.0</v>
+        <v>87.0</v>
       </c>
       <c r="E62" t="n">
-        <v>10569.0</v>
+        <v>4324.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results1.xlsx
+++ b/src/output/results1.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>81.0</v>
+        <v>306.0</v>
       </c>
       <c r="B1" t="n">
-        <v>81.0</v>
+        <v>306.0</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.0</v>
+        <v>318.0</v>
       </c>
       <c r="B2" t="n">
-        <v>84.0</v>
+        <v>318.0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,1022 +380,2331 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>86.0</v>
+        <v>329.0</v>
       </c>
       <c r="B3" t="n">
-        <v>86.0</v>
+        <v>328.0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95.0</v>
+        <v>361.0</v>
       </c>
       <c r="B4" t="n">
-        <v>95.0</v>
+        <v>360.0</v>
       </c>
       <c r="C4" t="n">
-        <v>9.0</v>
+        <v>32.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104.0</v>
+        <v>392.0</v>
       </c>
       <c r="B5" t="n">
-        <v>104.0</v>
+        <v>390.0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.0</v>
+        <v>31.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>109.0</v>
+        <v>422.0</v>
       </c>
       <c r="B6" t="n">
-        <v>109.0</v>
+        <v>420.0</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>30.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>121.0</v>
+        <v>459.0</v>
       </c>
       <c r="B7" t="n">
-        <v>121.0</v>
+        <v>457.0</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0</v>
+        <v>37.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>134.0</v>
+        <v>489.0</v>
       </c>
       <c r="B8" t="n">
-        <v>134.0</v>
+        <v>486.0</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0</v>
+        <v>30.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>152.0</v>
+        <v>531.0</v>
       </c>
       <c r="B9" t="n">
-        <v>152.0</v>
+        <v>524.0</v>
       </c>
       <c r="C9" t="n">
-        <v>18.0</v>
+        <v>42.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>160.0</v>
+        <v>573.0</v>
       </c>
       <c r="B10" t="n">
-        <v>159.0</v>
+        <v>565.0</v>
       </c>
       <c r="C10" t="n">
-        <v>8.0</v>
+        <v>42.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>170.0</v>
+        <v>602.0</v>
       </c>
       <c r="B11" t="n">
-        <v>168.0</v>
+        <v>591.0</v>
       </c>
       <c r="C11" t="n">
-        <v>10.0</v>
+        <v>29.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>180.0</v>
+        <v>638.0</v>
       </c>
       <c r="B12" t="n">
-        <v>176.0</v>
+        <v>623.0</v>
       </c>
       <c r="C12" t="n">
-        <v>10.0</v>
+        <v>36.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>199.0</v>
+        <v>680.0</v>
       </c>
       <c r="B13" t="n">
-        <v>193.0</v>
+        <v>654.0</v>
       </c>
       <c r="C13" t="n">
-        <v>19.0</v>
+        <v>42.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>210.0</v>
+        <v>713.0</v>
       </c>
       <c r="B14" t="n">
-        <v>203.0</v>
+        <v>672.0</v>
       </c>
       <c r="C14" t="n">
-        <v>11.0</v>
+        <v>33.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>228.0</v>
+        <v>774.0</v>
       </c>
       <c r="B15" t="n">
-        <v>217.0</v>
+        <v>723.0</v>
       </c>
       <c r="C15" t="n">
-        <v>18.0</v>
+        <v>61.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>11.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>247.0</v>
+        <v>836.0</v>
       </c>
       <c r="B16" t="n">
-        <v>230.0</v>
+        <v>766.0</v>
       </c>
       <c r="C16" t="n">
-        <v>19.0</v>
+        <v>62.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>17.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>281.0</v>
+        <v>896.0</v>
       </c>
       <c r="B17" t="n">
-        <v>257.0</v>
+        <v>812.0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.0</v>
+        <v>60.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>23.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>310.0</v>
+        <v>972.0</v>
       </c>
       <c r="B18" t="n">
-        <v>274.0</v>
+        <v>854.0</v>
       </c>
       <c r="C18" t="n">
-        <v>29.0</v>
+        <v>76.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>34.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>346.0</v>
+        <v>1047.0</v>
       </c>
       <c r="B19" t="n">
-        <v>303.0</v>
+        <v>900.0</v>
       </c>
       <c r="C19" t="n">
-        <v>36.0</v>
+        <v>75.0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>40.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>383.0</v>
+        <v>1110.0</v>
       </c>
       <c r="B20" t="n">
-        <v>332.0</v>
+        <v>938.0</v>
       </c>
       <c r="C20" t="n">
-        <v>37.0</v>
+        <v>63.0</v>
       </c>
       <c r="D20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>48.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>408.0</v>
+        <v>1203.0</v>
       </c>
       <c r="B21" t="n">
-        <v>347.0</v>
+        <v>992.0</v>
       </c>
       <c r="C21" t="n">
-        <v>25.0</v>
+        <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>58.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>443.0</v>
+        <v>1283.0</v>
       </c>
       <c r="B22" t="n">
-        <v>373.0</v>
+        <v>1042.0</v>
       </c>
       <c r="C22" t="n">
-        <v>35.0</v>
+        <v>80.0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>67.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>485.0</v>
+        <v>1385.0</v>
       </c>
       <c r="B23" t="n">
-        <v>403.0</v>
+        <v>1122.0</v>
       </c>
       <c r="C23" t="n">
-        <v>42.0</v>
+        <v>102.0</v>
       </c>
       <c r="D23" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E23" t="n">
-        <v>79.0</v>
+        <v>262.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>543.0</v>
+        <v>1482.0</v>
       </c>
       <c r="B24" t="n">
-        <v>439.0</v>
+        <v>1185.0</v>
       </c>
       <c r="C24" t="n">
-        <v>58.0</v>
+        <v>97.0</v>
       </c>
       <c r="D24" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" t="n">
-        <v>101.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>593.0</v>
+        <v>1600.0</v>
       </c>
       <c r="B25" t="n">
-        <v>477.0</v>
+        <v>1270.0</v>
       </c>
       <c r="C25" t="n">
-        <v>50.0</v>
+        <v>118.0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E25" t="n">
-        <v>113.0</v>
+        <v>328.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>646.0</v>
+        <v>1715.0</v>
       </c>
       <c r="B26" t="n">
-        <v>512.0</v>
+        <v>1334.0</v>
       </c>
       <c r="C26" t="n">
-        <v>53.0</v>
+        <v>115.0</v>
       </c>
       <c r="D26" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E26" t="n">
-        <v>130.0</v>
+        <v>379.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>698.0</v>
+        <v>1835.0</v>
       </c>
       <c r="B27" t="n">
-        <v>538.0</v>
+        <v>1399.0</v>
       </c>
       <c r="C27" t="n">
-        <v>52.0</v>
+        <v>120.0</v>
       </c>
       <c r="D27" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" t="n">
-        <v>155.0</v>
+        <v>432.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>766.0</v>
+        <v>1936.0</v>
       </c>
       <c r="B28" t="n">
-        <v>587.0</v>
+        <v>1434.0</v>
       </c>
       <c r="C28" t="n">
-        <v>68.0</v>
+        <v>101.0</v>
       </c>
       <c r="D28" t="n">
         <v>6.0</v>
       </c>
       <c r="E28" t="n">
-        <v>173.0</v>
+        <v>496.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>815.0</v>
+        <v>2054.0</v>
       </c>
       <c r="B29" t="n">
-        <v>608.0</v>
+        <v>1496.0</v>
       </c>
       <c r="C29" t="n">
-        <v>49.0</v>
+        <v>118.0</v>
       </c>
       <c r="D29" t="n">
         <v>6.0</v>
       </c>
       <c r="E29" t="n">
-        <v>201.0</v>
+        <v>552.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>878.0</v>
+        <v>2195.0</v>
       </c>
       <c r="B30" t="n">
-        <v>648.0</v>
+        <v>1575.0</v>
       </c>
       <c r="C30" t="n">
-        <v>63.0</v>
+        <v>141.0</v>
       </c>
       <c r="D30" t="n">
         <v>7.0</v>
       </c>
       <c r="E30" t="n">
-        <v>223.0</v>
+        <v>613.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>941.0</v>
+        <v>2322.0</v>
       </c>
       <c r="B31" t="n">
-        <v>684.0</v>
+        <v>1627.0</v>
       </c>
       <c r="C31" t="n">
-        <v>63.0</v>
+        <v>127.0</v>
       </c>
       <c r="D31" t="n">
         <v>7.0</v>
       </c>
       <c r="E31" t="n">
-        <v>250.0</v>
+        <v>688.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1015.0</v>
+        <v>2449.0</v>
       </c>
       <c r="B32" t="n">
-        <v>729.0</v>
+        <v>1702.0</v>
       </c>
       <c r="C32" t="n">
-        <v>74.0</v>
+        <v>127.0</v>
       </c>
       <c r="D32" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E32" t="n">
-        <v>278.0</v>
+        <v>740.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1084.0</v>
+        <v>2578.0</v>
       </c>
       <c r="B33" t="n">
-        <v>768.0</v>
+        <v>1756.0</v>
       </c>
       <c r="C33" t="n">
-        <v>69.0</v>
+        <v>129.0</v>
       </c>
       <c r="D33" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E33" t="n">
-        <v>308.0</v>
+        <v>815.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1158.0</v>
+        <v>2734.0</v>
       </c>
       <c r="B34" t="n">
-        <v>810.0</v>
+        <v>1839.0</v>
       </c>
       <c r="C34" t="n">
-        <v>74.0</v>
+        <v>156.0</v>
       </c>
       <c r="D34" t="n">
         <v>8.0</v>
       </c>
       <c r="E34" t="n">
-        <v>340.0</v>
+        <v>887.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1244.0</v>
+        <v>2918.0</v>
       </c>
       <c r="B35" t="n">
-        <v>856.0</v>
+        <v>1932.0</v>
       </c>
       <c r="C35" t="n">
-        <v>86.0</v>
+        <v>184.0</v>
       </c>
       <c r="D35" t="n">
         <v>8.0</v>
       </c>
       <c r="E35" t="n">
-        <v>380.0</v>
+        <v>978.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1343.0</v>
+        <v>3095.0</v>
       </c>
       <c r="B36" t="n">
-        <v>897.0</v>
+        <v>2012.0</v>
       </c>
       <c r="C36" t="n">
-        <v>99.0</v>
+        <v>177.0</v>
       </c>
       <c r="D36" t="n">
         <v>9.0</v>
       </c>
       <c r="E36" t="n">
-        <v>437.0</v>
+        <v>1074.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1451.0</v>
+        <v>3280.0</v>
       </c>
       <c r="B37" t="n">
-        <v>972.0</v>
+        <v>2115.0</v>
       </c>
       <c r="C37" t="n">
-        <v>108.0</v>
+        <v>185.0</v>
       </c>
       <c r="D37" t="n">
         <v>10.0</v>
       </c>
       <c r="E37" t="n">
-        <v>469.0</v>
+        <v>1155.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1561.0</v>
+        <v>3505.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1032.0</v>
+        <v>2234.0</v>
       </c>
       <c r="C38" t="n">
-        <v>110.0</v>
+        <v>225.0</v>
       </c>
       <c r="D38" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="E38" t="n">
-        <v>516.0</v>
+        <v>1261.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1711.0</v>
+        <v>3706.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1125.0</v>
+        <v>2327.0</v>
       </c>
       <c r="C39" t="n">
-        <v>150.0</v>
+        <v>201.0</v>
       </c>
       <c r="D39" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="E39" t="n">
-        <v>572.0</v>
+        <v>1366.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1851.0</v>
+        <v>3920.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1217.0</v>
+        <v>2442.0</v>
       </c>
       <c r="C40" t="n">
-        <v>140.0</v>
+        <v>214.0</v>
       </c>
       <c r="D40" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="E40" t="n">
-        <v>619.0</v>
+        <v>1460.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2033.0</v>
+        <v>4179.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1332.0</v>
+        <v>2586.0</v>
       </c>
       <c r="C41" t="n">
-        <v>182.0</v>
+        <v>259.0</v>
       </c>
       <c r="D41" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="E41" t="n">
-        <v>684.0</v>
+        <v>1574.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2227.0</v>
+        <v>4433.0</v>
       </c>
       <c r="B42" t="n">
-        <v>1466.0</v>
+        <v>2704.0</v>
       </c>
       <c r="C42" t="n">
-        <v>194.0</v>
+        <v>254.0</v>
       </c>
       <c r="D42" t="n">
         <v>19.0</v>
       </c>
       <c r="E42" t="n">
-        <v>742.0</v>
+        <v>1710.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2408.0</v>
+        <v>4707.0</v>
       </c>
       <c r="B43" t="n">
-        <v>1570.0</v>
+        <v>2834.0</v>
       </c>
       <c r="C43" t="n">
-        <v>181.0</v>
+        <v>274.0</v>
       </c>
       <c r="D43" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="E43" t="n">
-        <v>819.0</v>
+        <v>1850.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2635.0</v>
+        <v>5008.0</v>
       </c>
       <c r="B44" t="n">
-        <v>1737.0</v>
+        <v>2993.0</v>
       </c>
       <c r="C44" t="n">
-        <v>227.0</v>
+        <v>301.0</v>
       </c>
       <c r="D44" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="E44" t="n">
-        <v>877.0</v>
+        <v>1989.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2915.0</v>
+        <v>5324.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1935.0</v>
+        <v>3154.0</v>
       </c>
       <c r="C45" t="n">
-        <v>280.0</v>
+        <v>316.0</v>
       </c>
       <c r="D45" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="E45" t="n">
-        <v>959.0</v>
+        <v>2143.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3165.0</v>
+        <v>5684.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2098.0</v>
+        <v>3353.0</v>
       </c>
       <c r="C46" t="n">
-        <v>250.0</v>
+        <v>360.0</v>
       </c>
       <c r="D46" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1044.0</v>
+        <v>2303.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3488.0</v>
+        <v>6037.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2333.0</v>
+        <v>3546.0</v>
       </c>
       <c r="C47" t="n">
-        <v>323.0</v>
+        <v>353.0</v>
       </c>
       <c r="D47" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1129.0</v>
+        <v>2459.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3821.0</v>
+        <v>6447.0</v>
       </c>
       <c r="B48" t="n">
-        <v>2573.0</v>
+        <v>3789.0</v>
       </c>
       <c r="C48" t="n">
-        <v>333.0</v>
+        <v>410.0</v>
       </c>
       <c r="D48" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1221.0</v>
+        <v>2625.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4187.0</v>
+        <v>6894.0</v>
       </c>
       <c r="B49" t="n">
-        <v>2847.0</v>
+        <v>4055.0</v>
       </c>
       <c r="C49" t="n">
-        <v>366.0</v>
+        <v>447.0</v>
       </c>
       <c r="D49" t="n">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1312.0</v>
+        <v>2803.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4601.0</v>
+        <v>7350.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3131.0</v>
+        <v>4349.0</v>
       </c>
       <c r="C50" t="n">
-        <v>414.0</v>
+        <v>456.0</v>
       </c>
       <c r="D50" t="n">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1442.0</v>
+        <v>2965.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5050.0</v>
+        <v>7818.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3439.0</v>
+        <v>4618.0</v>
       </c>
       <c r="C51" t="n">
-        <v>449.0</v>
+        <v>468.0</v>
       </c>
       <c r="D51" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1577.0</v>
+        <v>3164.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5589.0</v>
+        <v>8327.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3833.0</v>
+        <v>4929.0</v>
       </c>
       <c r="C52" t="n">
-        <v>539.0</v>
+        <v>509.0</v>
       </c>
       <c r="D52" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1720.0</v>
+        <v>3359.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6160.0</v>
+        <v>8860.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4240.0</v>
+        <v>5228.0</v>
       </c>
       <c r="C53" t="n">
-        <v>571.0</v>
+        <v>533.0</v>
       </c>
       <c r="D53" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1882.0</v>
+        <v>3592.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6736.0</v>
+        <v>9448.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4631.0</v>
+        <v>5565.0</v>
       </c>
       <c r="C54" t="n">
-        <v>576.0</v>
+        <v>588.0</v>
       </c>
       <c r="D54" t="n">
         <v>43.0</v>
       </c>
       <c r="E54" t="n">
-        <v>2062.0</v>
+        <v>3840.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7335.0</v>
+        <v>10063.0</v>
       </c>
       <c r="B55" t="n">
-        <v>5025.0</v>
+        <v>5906.0</v>
       </c>
       <c r="C55" t="n">
-        <v>599.0</v>
+        <v>615.0</v>
       </c>
       <c r="D55" t="n">
-        <v>49.0</v>
+        <v>46.0</v>
       </c>
       <c r="E55" t="n">
-        <v>2261.0</v>
+        <v>4111.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7962.0</v>
+        <v>10736.0</v>
       </c>
       <c r="B56" t="n">
-        <v>5435.0</v>
+        <v>6308.0</v>
       </c>
       <c r="C56" t="n">
-        <v>627.0</v>
+        <v>673.0</v>
       </c>
       <c r="D56" t="n">
-        <v>52.0</v>
+        <v>49.0</v>
       </c>
       <c r="E56" t="n">
-        <v>2475.0</v>
+        <v>4379.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8623.0</v>
+        <v>11405.0</v>
       </c>
       <c r="B57" t="n">
-        <v>5868.0</v>
+        <v>6649.0</v>
       </c>
       <c r="C57" t="n">
-        <v>661.0</v>
+        <v>669.0</v>
       </c>
       <c r="D57" t="n">
-        <v>56.0</v>
+        <v>53.0</v>
       </c>
       <c r="E57" t="n">
-        <v>2699.0</v>
+        <v>4703.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9340.0</v>
+        <v>12192.0</v>
       </c>
       <c r="B58" t="n">
-        <v>6334.0</v>
+        <v>7113.0</v>
       </c>
       <c r="C58" t="n">
-        <v>717.0</v>
+        <v>787.0</v>
       </c>
       <c r="D58" t="n">
         <v>60.0</v>
       </c>
       <c r="E58" t="n">
-        <v>2946.0</v>
+        <v>5019.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10088.0</v>
+        <v>12969.0</v>
       </c>
       <c r="B59" t="n">
-        <v>6771.0</v>
+        <v>7511.0</v>
       </c>
       <c r="C59" t="n">
-        <v>748.0</v>
+        <v>777.0</v>
       </c>
       <c r="D59" t="n">
-        <v>67.0</v>
+        <v>66.0</v>
       </c>
       <c r="E59" t="n">
-        <v>3250.0</v>
+        <v>5392.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10869.0</v>
+        <v>13735.0</v>
       </c>
       <c r="B60" t="n">
-        <v>7236.0</v>
+        <v>7895.0</v>
       </c>
       <c r="C60" t="n">
-        <v>781.0</v>
+        <v>766.0</v>
       </c>
       <c r="D60" t="n">
-        <v>73.0</v>
+        <v>69.0</v>
       </c>
       <c r="E60" t="n">
-        <v>3560.0</v>
+        <v>5771.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11737.0</v>
+        <v>14586.0</v>
       </c>
       <c r="B61" t="n">
-        <v>7722.0</v>
+        <v>8326.0</v>
       </c>
       <c r="C61" t="n">
-        <v>868.0</v>
+        <v>851.0</v>
       </c>
       <c r="D61" t="n">
-        <v>83.0</v>
+        <v>74.0</v>
       </c>
       <c r="E61" t="n">
-        <v>3932.0</v>
+        <v>6186.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12669.0</v>
+        <v>15479.0</v>
       </c>
       <c r="B62" t="n">
-        <v>8258.0</v>
+        <v>8799.0</v>
       </c>
       <c r="C62" t="n">
-        <v>932.0</v>
+        <v>893.0</v>
       </c>
       <c r="D62" t="n">
-        <v>87.0</v>
+        <v>81.0</v>
       </c>
       <c r="E62" t="n">
-        <v>4324.0</v>
+        <v>6599.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>16364.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>9237.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>885.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7041.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>17285.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9658.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>921.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7536.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>18335.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10164.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8069.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>19406.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10687.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1071.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8610.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42167.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>27529.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3223.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>14420.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>45683.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>29663.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3516.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>15776.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>49463.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>32004.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3780.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>17194.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>53636.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>34591.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4173.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>18748.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58220.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>37458.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4584.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>20449.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63006.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>40482.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4786.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>22189.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>68210.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>43680.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5204.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>24169.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73904.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>47250.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>5694.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>26265.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>79859.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>50855.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5955.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>28585.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>86383.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>54928.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6524.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>31000.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>93533.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>59331.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7150.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>495.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>33707.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>101147.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>64086.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7614.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>535.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>36526.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>109145.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>68993.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7998.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>574.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>39578.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>117811.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>74293.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8666.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>615.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>42903.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>127054.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79789.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>9243.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>664.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>46601.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>136998.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>85834.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9944.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>50448.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>147411.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>91993.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10413.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>775.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>54643.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>158457.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>98468.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11046.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>846.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>59143.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>169756.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>104815.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>11299.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>925.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>64016.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>181839.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>111522.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>12083.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>69314.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>194769.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>118737.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>12930.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1084.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>74948.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>208080.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>125897.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>13311.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1178.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>81005.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>221903.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>133130.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>13823.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1254.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>87519.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>236446.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>140709.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>14543.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>94390.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>251460.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>148163.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>15014.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1457.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>101840.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>266987.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>155481.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15527.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1560.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>109946.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>282843.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>162795.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>15856.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1691.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>118357.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>299473.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>170001.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>16630.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1817.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>127655.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>316286.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>177154.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>16813.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>137173.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>333485.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>183909.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>17199.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2102.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>147474.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>350837.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>190440.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>17352.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2253.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>158144.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>368247.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>196334.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>17410.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2396.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>169517.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>385909.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>202026.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>17662.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2570.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>181313.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>403509.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>207208.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>17600.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2722.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>193579.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>420897.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>211562.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>17388.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2903.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>206432.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>438127.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>215166.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>17230.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3103.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>219858.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>454967.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>217835.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>16840.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3322.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>233810.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>471882.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>220031.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>16915.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3527.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>248324.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>488667.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>221775.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>16785.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3758.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>263134.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>505109.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>222866.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>16442.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3983.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>278260.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>521389.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>223345.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>16280.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4223.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>293821.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>537202.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>223179.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>15813.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4455.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>309568.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>553022.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>222651.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>15820.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4671.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>325700.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>568469.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>221700.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>15447.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4886.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>341883.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>583835.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>220506.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>15366.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5147.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>358182.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>599238.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>219183.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>15403.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5378.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>374677.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>614458.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>217768.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>15220.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5632.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>391058.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>629392.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>216074.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>14934.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5875.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>407443.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>644178.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>214483.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>14786.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6109.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>423586.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>658609.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>212584.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>14431.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6352.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>439673.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>672948.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>210546.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>14339.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6581.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>455821.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>687248.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>208563.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>14300.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6786.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>471899.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>701174.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>206455.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>13926.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6997.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>487722.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>714632.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>203739.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>13458.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7224.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>503669.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>727935.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>200961.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>13303.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7417.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>519557.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>740953.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>198306.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>13018.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7636.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>535011.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>753715.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>195520.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12762.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7865.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>550330.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>766185.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>192626.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12470.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8086.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>565473.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>778259.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>189341.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12074.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8273.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>580645.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>790275.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>186300.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12016.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8440.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>595535.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>801722.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>182954.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11447.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>8642.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>610126.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>813025.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>179339.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>11303.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>8846.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>624840.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>824011.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>175731.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>10986.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9064.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>639216.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>834412.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>171982.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>10401.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9248.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>653182.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>844748.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>168074.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>10336.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9459.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>667215.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>855000.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>164517.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>10252.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9661.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>680822.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>864550.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>160616.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9550.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9818.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>694116.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>873822.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>156668.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9272.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>10011.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>707143.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>883078.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>152736.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9256.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>10181.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>720161.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>891810.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>148785.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>8732.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10345.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>732680.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>900287.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>144915.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>8477.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10502.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>744870.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>908414.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>140933.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>8127.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>10677.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>756804.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>916219.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>136962.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>7805.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10834.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>768423.0</v>
       </c>
     </row>
   </sheetData>
